--- a/trump_posts_AI_analysis.xlsx
+++ b/trump_posts_AI_analysis.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,231 +441,1029 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>time_str</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tweet_content</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>original_content</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tweet_url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>impact_on_market</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sentiment_score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>market_impact_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>reason</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>posted_time</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>tweet_content</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>tweet_url</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>impact_on_market</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>sentiment_score</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>market_impact_score</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>keywords</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>sector</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reason</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-22 23:27:00 EST</t>
+          <t>2025-11-29 16:17:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nov 23, 2025, 1:27 PM</t>
+          <t>Nov 30, 2025, 6:17 AM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MANY GREAT LEGAL SCHOLARS AGREE THAT THE DEMOCRAT TRAITORS THAT TOLD THE MILITARY TO DISOBEY MY ORDERS, AS PRESIDENT, HAVE COMMITTED A CRIME OF SERIOUS PROPORTION!</t>
+          <t>winning is always nice</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://truthsocial.com/@realDonaldTrump/posts/115597116924552201</t>
+          <t>Winning is always nice!</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115635064661785681</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>-0.7</v>
-      </c>
       <c r="G2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Democrat, military, legal scholars, crime, president</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>The tweet is political in nature and does not mention specific companies, sectors, or economic policies that would influence the stock market.</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>The tweet contains no company references or economic content, so it is unlikely to have a measurable market impact.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-11-22 23:17:00 EST</t>
+          <t>2025-11-29 15:53:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nov 23, 2025, 1:17 PM</t>
+          <t>Nov 30, 2025, 5:53 AM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>THE TRAITORS THAT TOLD THE MILITARY TO DISOBEY MY ORDERS SHOULD BE IN JAIL RIGHT NOW, NOT ROAMING THE FAKE NEWS NETWORKS TRYING TO EXPLAIN THAT WHAT THEY SAID WAS OK. IT WASN’T, AND NEVER WILL BE! IT WAS SEDITION AT THE HIGHEST LEVEL, AND SEDITION IS A MAJOR CRIME. THERE CAN BE NO OTHER INTERPRETATION OF WHAT THEY SAID!</t>
+          <t>great being with the highly respected future king of saudi arabia mohammed bin salman he is doing tremendous things for his country</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://truthsocial.com/@realDonaldTrump/posts/115597077845312894</t>
+          <t>Great being with the Highly Respected future King of Saudi Arabia, Mohammed bin Salman. He is doing tremendous things for his Country!</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.9</v>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115634967838729337</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Military, Fake News, Sedition</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>0.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Mohammed bin Salman, Saudi Arabia, oil, geopolitics, energy</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>The tweet focuses on accusations against unnamed military figures and the media without reference to any companies, sectors, or the economy.</t>
-        </is>
-      </c>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>A positive statement about a foreign political leader with potential implications for oil markets and geopolitical risk sentiment, but no direct reference to a U.S.-listed company.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-11-18 17:36:00 EST</t>
+          <t>2025-11-29 15:49:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nov 19, 2025, 7:36 AM</t>
+          <t>Nov 30, 2025, 5:49 AM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Investment in AI is helping to make the U.S. Economy the “HOTTEST” in the World, but overregulation by the States is threatening to undermine this Major Growth “Engine.” Some States are even trying to embed DEI ideology into AI models, producing “Woke AI” (Remember Black George Washington?). We MUST have one Federal Standard instead of a patchwork of 50 State Regulatory Regimes. If we don’t, then China will easily catch us in the AI race. Put it in the NDAA, or pass a separate Bill, and nobody will ever be able to compete with America.</t>
+          <t>immigration and nationality act section 212 whenever the president finds that the entry of any aliens or of any class of aliens into the united states would be detrimental to the interests of the united states he may by proclamation and for such period as he shall deem necessary suspend the entry of all aliens or any class of aliens as immigrants or nonimmigrants or impose on the entry of aliens any restrictions he may deem to be appropriate</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://truthsocial.com/@realDonaldTrump/posts/115573090200730933</t>
+          <t>Immigration and Nationality Act, Section 212(f):
+“Whenever the President finds that the entry of any aliens or of any class of aliens into the United States would be detrimental to the interests of the United States, he may by proclamation, and for such period as he shall deem necessary, suspend the entry of all aliens or any class of aliens as immigrants or nonimmigrants, or impose on the entry of aliens any restrictions he may deem to be appropriate.”</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115634952920337470</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Indirect</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>0.3</v>
-      </c>
       <c r="G4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>AI, U.S. Economy, Regulation, China, NDAA</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.25</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Information Technology, Industrials</t>
+          <t>Immigration Policy, Section 212, Nationality Act, Presidential Proclamation, Aliens</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>The tweet supports AI investment and warns against overregulation, indirectly signaling potential policy changes that could impact the tech sector and broader market sentiment.</t>
-        </is>
-      </c>
+          <t>Industrials, Information Technology, Financials, Consumer Discretionary, Health Care, Real Estate, Communication Services</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Immigration policy changes can affect labor supply and economic growth, with ripple effects across multiple sectors.</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2025-11-29 08:17:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nov 29, 2025, 10:17 PM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>because have invoked favored nations status for the united states of america drug prices are falling at levels never seen before 500 600 700 and more no other president has been able to do this but have this is also the answer to much less expensive and far better healthcare republicans remember this was done by us and nobody else this is revolution in medicine the biggest and most important event ever if this story is properly told we should win the midterm elections in record numbers am the affordability president talk loudly and proudly president djt</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Because I have invoked FAVORED NATIONS STATUS FOR THE UNITED STATES OF AMERICA, DRUG PRICES ARE FALLING AT LEVELS NEVER SEEN BEFORE, 500%, 600%, 700%, and more. No other President has been able to do this, BUT I HAVE! This is also the answer to much less expensive, and far better, HEALTHCARE! Republicans, remember, this was done by us, and nobody else. This is a revolution in medicine, the biggest and most important event, EVER. If this story is properly told, we should win the Midterm Elections in RECORD NUMBERS. I AM THE AFFORDABILITY PRESIDENT. TALK LOUDLY AND PROUDLY! President DJT</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115633174669225455</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Most-Favored Nation status, drug prices, healthcare affordability, pharmaceuticals, US healthcare policy</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Health Care</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Policy shift to Most-Favored Nation status for drugs implies lower US drug prices and broader healthcare affordability, likely impacting the Health Care sector.</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-11-29 07:43:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nov 29, 2025, 9:43 PM</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>to all airlines pilots drug dealers and human traffickers please consider the airspace above and surrounding venezuela to be closed in its entirety thank you for your attention to this matter president donald trump</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>To all Airlines, Pilots, Drug Dealers, and Human Traffickers, please consider THE AIRSPACE ABOVE AND SURROUNDING VENEZUELA TO BE CLOSED IN ITS ENTIRETY. Thank you for your attention to this matter! PRESIDENT DONALD J. TRUMP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115633041089714842</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Venezuela, Airlines, Airspace, Policy, Trump</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Industrials, Energy</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>A Venezuelan airspace closure policy could raise geopolitical risk and disrupt airlines and related energy logistics, prompting a modest market reaction across travel and aviation-related equities.</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-29 07:22:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nov 29, 2025, 9:22 PM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>tariffs have made our country rich strong powerful and safe they have been successfully used by other countries against us for decades but when it comes to tariffs and because of what have set in place we have all the cards and with smart president we always will wars have been stopped and stronger relationships with other countries have been built even though they are not allowed to rip off the united states anymore the stock market and 401k have hit an all time high inflation prices and taxes are down education is being brought back to the states where it belongs and our military and southern border is the strongest they have ever been the usa is respected again respected like never before all of this was brought about by strong leadership and tariffs without which we would be poor and pathetic laughingstock again evil american hating forces are fighting us at the united states supreme court pray to god that our nine justices will show great wisdom and do the right thing for america</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tariffs have made our Country Rich, Strong, Powerful, and Safe. They have been successfully used by other Countries against us for Decades, but when it comes to Tariffs, and because of what I have set in place, WE HAVE ALL THE CARDS, and with a smart President, we always will! Wars have been stopped, and stronger relationships with other countries have been built, even though they are not allowed to rip off the United States anymore. The Stock Market and 401k’s have hit an all time high, Inflation, Prices and Taxes are DOWN. Education is being brought back to the States (where it belongs!), and our Military, and Southern Border, is the strongest they have ever been. The USA is respected again, respected like never before. All of this was brought about by Strong Leadership and TARIFFS, without which we would be a poor and pathetic laughingstock again. Evil, American hating Forces are fighting us at the United States Supreme Court. Pray to God that our Nine Justices will show great wisdom, and do the right thing for America!</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115632959311037868</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Tariffs, Stock market, 401k, Inflation, Taxes</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Financials, Industrials, Consumer Discretionary, Materials</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>The tweet frames tariffs and perceived leadership as fueling macroeconomic strength and a record stock market, implying positive, policy-driven sentiment that could influence investor expectations across multiple sectors.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-28 16:18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nov 29, 2025, 6:18 AM</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>if tito asfura wins for president of honduras because the united states has so much confidence in him his policies and what he will do for the great people of honduras we will be very supportive if he doesn win the united states will not be throwing good money after bad because wrong leader can only bring catastrophic results to country no matter which country it is tito will be great president and the united states will work closely with him in order to ensure the success with all of its potential of honduras additionally will be granting full and complete pardon to former president juan orlando hernandez who has been according to many people that greatly respect treated very harshly and unfairly this cannot be allowed to happen especially now after tito asfura wins the election when honduras will be on its way to great political and financial success vote for tito asfura for president and congratulations to juan orlando hernandez on your upcoming pardon thank you for your attention to this matter make honduras great again president donald trump</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>If Tito Asfura wins for President of Honduras, because the United States has so much confidence in him, his Policies, and what he will do for the Great People of Honduras, we will be very supportive. If he doesn’t win, the United States will not be throwing good money after bad, because a wrong Leader can only bring catastrophic results to a country, no matter which country it is. Tito will be a Great President, and the United States will work closely with him in order to ensure the success, with all of its potential, of Honduras! Additionally, I will be granting a Full and Complete Pardon to Former President Juan Orlando Hernandez who has been, according to many people that I greatly respect, treated very harshly and unfairly. This cannot be allowed to happen, especially now, after Tito Asfura wins the Election, when Honduras will be on its way to Great Political and Financial Success. VOTE FOR TITO ASFURA FOR PRESIDENT, AND CONGRATULATIONS TO JUAN ORLANDO HERNANDEZ ON YOUR UPCOMING PARDON. Thank you for your attention to this matter. MAKE HONDURAS GREAT AGAIN!PRESIDENT DONALD J. TRUMP</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115629406693931908</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Honduras, US-Honduras relations, foreign policy, investments, remittances</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Financials, Industrials</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>No specific companies are named, but the tweet implies potential policy and relationship shifts between the US and Honduras that could affect investor sentiment and cross-border capital flows in Latin markets.</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-28 16:00:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nov 29, 2025, 6:00 AM</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>democracy is on trial in the coming elections in the beautiful country of honduras on november 30th will maduro and his narcoterrorists take over another country like they have taken over cuba nicaragua and venezuela the man who is standing up for democracy and fighting against maduro is tito asfura the presidential candidate of the national party tito was the highly successful mayor of tegucigalpa where he brought running water to millions and paved hundreds of kilometers of roads his chief opponent is rixi moncada who says fidel castro is her idol normally the smart people of honduras would reject her and elect tito asfura but the communists are trying to trick the people by running third candidate salvador nasralla nasralla is no friend of freedom borderline communist he helped xiomara castro by running as her vice president he won and helped castro win then he resigned and is now pretending to be an anti communist only for the purposes of splitting asfura vote the people of honduras must not be tricked again the only real friend of freedom in honduras is tito asfura tito and can work together to fight the narcocommunists and bring needed aid to the people of honduras cannot work with moncada and the communists and nasralla is not reliable partner for freedom and cannot be trusted hope the people of honduras vote for freedom and democracy and elect tito asfura president</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Democracy is on trial in the coming Elections in the beautiful country of Honduras on November 30th. Will Maduro and his Narcoterrorists take over another country like they have taken over Cuba, Nicaragua, and Venezuela? The man who is standing up for Democracy, and fighting against Maduro, is Tito Asfura, the Presidential Candidate of the National Party. Tito was the highly successful Mayor of Tegucigalpa where he brought running water to millions, and paved hundreds of kilometers of roads. His chief opponent is Rixi Moncada, who says Fidel Castro is her idol. Normally, the smart people of Honduras, would reject her, and elect Tito Asfura, but the Communists are trying to trick the people by running a third Candidate, Salvador Nasralla. Nasralla is no friend of Freedom. A borderline Communist, he helped Xiomara Castro by running as her Vice President. He won, and helped Castro win. Then he resigned, and is now pretending to be an anti-Communist only for the purposes of splitting Asfura’s vote. The people of Honduras must not be tricked again. The only real friend of Freedom in Honduras is Tito Asfura. Tito and I can work together to fight the Narcocommunists, and bring needed aid to the people of Honduras. I cannot work with Moncada and the Communists, and Nasralla is not a reliable partner for Freedom, and cannot be trusted. I hope the people of Honduras vote for Freedom and Democracy, and elect Tito Asfura, President!</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115629335172411031</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Tito Asfura, Xiomara Castro, Salvador Nasralla, Rixi Moncada, aid</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Industrials, Utilities, Financials</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>The tweet centers on Honduran political risk and elections, implying indirect, modest market impact through policy uncertainty and investor sentiment rather than direct company-specific signals.</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-28 15:02:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nov 29, 2025, 5:02 AM</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>trumplicans</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TRUMPLICANS!</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115629105165918036</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>No tweet provided to analyze.</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-28 14:37:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nov 29, 2025, 4:37 AM</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>any document signed by sleepy joe biden with the autopen which was approximately 92 of them is hereby terminated and of no further force or effect the autopen is not allowed to be used if approval is not specifically given by the president of the united states the radical left lunatics circling biden around the beautiful resolute desk in the oval office took the presidency away from him am hereby cancelling all executive orders and anything else that was not directly signed by crooked joe biden because the people who operated the autopen did so illegally joe biden was not involved in the autopen process and if he says he was he will be brought up on charges of perjury thank you for your attention to this matter</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Any document signed by Sleepy Joe Biden with the Autopen, which was approximately 92% of them, is hereby terminated, and of no further force or effect. The Autopen is not allowed to be used if approval is not specifically given by the President of the United
+States. The Radical Left Lunatics circling Biden around the beautiful Resolute Desk in the Oval Office took the Presidency away from him. I am hereby cancelling all Executive Orders, and anything else that was not directly signed by Crooked Joe Biden, because the people who operated the Autopen did so illegally. Joe Biden was not involved in the Autopen process and, if he says he was, he will be brought up on charges of perjury. Thank you for your attention to this matter!</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115629010097815862</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Executive orders, Autopen, Policy uncertainty, Perjury, Presidency</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Financials, Industrials, Information Technology</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>The tweet references cancelling executive orders and related political controversy, signaling policy uncertainty that could indirectly impact markets and investor sentiment.</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-28 02:30:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nov 28, 2025, 4:30 PM</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>twilight last gleaming can america be saved yes by the great todd starnes fantastic new book get it now president djt</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>“Twilight’s Last Gleaming, Can America Be Saved” (YES!), by the Great Todd Starnes. A fantastic NEW BOOK. Get it now!!! President DJT</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115626148731779942</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Todd Starnes, Donald Trump, Publishing, Media, Book</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>The tweet promotes a book and does not reference any companies, earnings, or economic factors, so it is unlikely to have a measurable market impact.</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-27 23:27:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nov 28, 2025, 1:27 PM</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>a very happy thanksgiving salutation to all of our great american citizens and patriots who have been so nice in allowing our country to be divided disrupted carved up murdered beaten mugged and laughed at along with certain other foolish countries throughout the world for being politically correct and just plain stupid when it comes to immigration the official united states foreign population stands at 53 million people census most of which are on welfare from failed nations or from prisons mental institutions gangs or drug cartels they and their children are supported through massive payments from patriotic american citizens who because of their beautiful hearts do not want to openly complain or cause trouble in any way shape or form they put up with what has happened to our country but it eating them alive to do so migrant earning 30 000 with green card will get roughly 50 000 in yearly benefits for their family the real migrant population is much higher this refugee burden is the leading cause of social dysfunction in america something that did not exist after world war ii failed schools high crime urban decay overcrowded hospitals housing shortages and large deficits etc as an example hundreds of thousands of refugees from somalia are completely taking over the once great state of minnesota somalian gangs are roving the streets looking for prey as our wonderful people stay locked in their apartments and houses hoping against hope that they will be left alone the seriously retarded governor of minnesota tim walz does nothing either through fear incompetence or both while the worst congressman woman in our country ilhan omar always wrapped in her swaddling hijab and who probably came into the s illegally in that you are not allowed to marry your brother does nothing but hatefully complain about our country its constitution and how badly she is treated when her place of origin is decadent backward and crime ridden nation which is essentially not even country for lack of government military police schools etc</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>A very Happy Thanksgiving salutation to all of our Great American Citizens and Patriots who have been so nice in allowing our Country to be divided, disrupted, carved up, murdered, beaten, mugged, and laughed at, along with certain other foolish countries throughout the World, for being “Politically Correct,” and just plain STUPID, when it comes to Immigration. The official United States Foreign population stands at 53 million people (Census), most of which are on welfare, from failed nations, or from prisons, mental institutions, gangs, or drug cartels. They and their children are supported through massive payments from Patriotic American Citizens who, because of their beautiful hearts, do not want to openly complain or cause trouble in any way, shape, or form. They put up with what has happened to our Country, but it’s eating them alive to do so! A migrant earning $30,000 with a green card will get roughly $50,000 in yearly benefits for their family. The real migrant population is much higher. This refugee burden is the leading cause of social dysfunction in America, something that did not exist after World War II (Failed schools, high crime, urban decay, overcrowded hospitals, housing shortages, and large deficits, etc.). As an example, hundreds of thousands of refugees from Somalia are completely taking over the once great State of Minnesota. Somalian gangs are roving the streets looking for “prey” as our wonderful people stay locked in their apartments and houses hoping against hope that they will be left alone. The seriously retarded Governor of Minnesota, Tim Walz, does nothing, either through fear, incompetence, or both, while the worst “Congressman/woman” in our Country, Ilhan Omar, always wrapped in her swaddling hijab, and who probably came into the U.S.A. illegally in that you are not allowed to marry your brother, does nothing but hatefully complain about our Country, its Constitution, and how “badly” she is treated, when her place of origin is a decadent, backward, and crime ridden nation, which is essentially not even a country for lack of Government, Military, Police, schools, etc…</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115625429081411360</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>immigration, refugees, deficit, welfare, Minnesota</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Financials, Health Care, Consumer Discretionary, Real Estate, Industrials</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>It discusses immigration policy and social welfare issues as macro concerns, implying indirect policy and economic sentiment effects across multiple sectors without citing any specific companies.</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-11-27 23:26:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nov 28, 2025, 1:26 PM</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>even as we have progressed technologically immigration policy has eroded those gains and living conditions for many will permanently pause migration from all third world countries to allow the s system to fully recover terminate all of the millions of biden illegal admissions including those signed by sleepy joe biden autopen and remove anyone who is not net asset to the united states or is incapable of loving our country end all federal benefits and subsidies to noncitizens of our country denaturalize migrants who undermine domestic tranquility and deport any foreign national who is public charge security risk or non compatible with western civilization these goals will be pursued with the aim of achieving major reduction in illegal and disruptive populations including those admitted through an unauthorized and illegal autopen approval process only reverse migration can fully cure this situation other than that happy thanksgiving to all except those that hate steal murder and destroy everything that america stands for you won be here for long</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>…Even as we have progressed technologically, Immigration Policy has eroded those gains and living conditions for many. I will permanently pause migration from all Third World Countries to allow the U.S. system to fully recover, terminate all of the millions of Biden illegal admissions, including those signed by Sleepy Joe Biden’s Autopen, and remove anyone who is not a net asset to the United States, or is incapable of loving our Country, end all Federal benefits and subsidies to noncitizens of our Country, denaturalize migrants who undermine domestic tranquility, and deport any Foreign National who is a public charge, security risk, or non-compatible with Western Civilization. These goals will be pursued with the aim of achieving a major reduction in illegal and disruptive populations, including those admitted through an unauthorized and illegal Autopen approval process. Only REVERSE MIGRATION can fully cure this situation. Other than that, HAPPY THANKSGIVING TO ALL, except those that hate, steal, murder, and destroy everything that America stands for — You won’t be here for long!</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115625427648743414</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>immigration policy, federal benefits to noncitizens, deportation, unauthorized migration, reverse migration</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Information Technology, Consumer Discretionary, Industrials, Health Care, Financials, Real Estate, Consumer Staples, Utilities, Energy, Materials, Communication Services</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Broad immigration policy changes could affect labor supply and consumer demand across multiple sectors, potentially dampening economic growth and market sentiment.</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-11-27 23:25:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nov 28, 2025, 1:25 PM</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>this is part of the horrendous airlift from afghanistan hundreds of thousands of people poured into our country totally unvetted and unchecked we will fix it but will never forget what crooked joe biden and his thugs did to our country</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>This is part of the horrendous airlift from Afghanistan. Hundreds of thousands of people poured into our Country totally unvetted and unchecked. We will fix it, but will never forget what Crooked Joe Biden and his Thugs did to our Country!</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115625421503636680</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>The tweet contains strong political rhetoric about immigration and the Afghanistan airlift with no direct company or CEO mention, implying broader macro sentiment and policy risk with limited immediate stock-specific impact.</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-11-27 13:50:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nov 28, 2025, 3:50 AM</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>very sad to hear that the highly respected and beloved professional golfer fuzzy zoeller has passed away in 1979 fuzzy won the masters tournament only 1 of 3 to win in his first appearance and in 1984 he won the s open at winged foot golf club and famously waved the white towel on the 18th hole as he went on to beat greg norman in an 18 hole playoff truly remarkable person and player he will be missed</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Very sad to hear that the highly respected and beloved Professional Golfer, Fuzzy Zoeller, has passed away. In 1979, Fuzzy won the Masters Tournament (Only 1 of 3 to win in his first appearance!) and, in 1984, he won the U.S. Open at Winged Foot Golf Club, and famously waved the white towel on the 18th Hole as he went on to beat Greg Norman in an 18 Hole playoff. A truly remarkable person and player, he will be missed!</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115623160236217960</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>No discernible impact on financial markets as the tweet discusses the death of a sports figure with no financial or economic implications.</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-11-22 23:27:00 EST</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MANY GREAT LEGAL SCHOLARS AGREE THAT THE DEMOCRAT TRAITORS THAT TOLD THE MILITARY TO DISOBEY MY ORDERS, AS PRESIDENT, HAVE COMMITTED A CRIME OF SERIOUS PROPORTION!</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115597116924552201</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Democrat, military, legal scholars, crime, president</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>The tweet is political in nature and does not mention specific companies, sectors, or economic policies that would influence the stock market.</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Nov 23, 2025, 1:27 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-11-22 23:17:00 EST</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>THE TRAITORS THAT TOLD THE MILITARY TO DISOBEY MY ORDERS SHOULD BE IN JAIL RIGHT NOW, NOT ROAMING THE FAKE NEWS NETWORKS TRYING TO EXPLAIN THAT WHAT THEY SAID WAS OK. IT WASN’T, AND NEVER WILL BE! IT WAS SEDITION AT THE HIGHEST LEVEL, AND SEDITION IS A MAJOR CRIME. THERE CAN BE NO OTHER INTERPRETATION OF WHAT THEY SAID!</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115597077845312894</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Military, Fake News, Sedition</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>The tweet focuses on accusations against unnamed military figures and the media without reference to any companies, sectors, or the economy.</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Nov 23, 2025, 1:17 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-11-18 17:36:00 EST</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Investment in AI is helping to make the U.S. Economy the “HOTTEST” in the World, but overregulation by the States is threatening to undermine this Major Growth “Engine.” Some States are even trying to embed DEI ideology into AI models, producing “Woke AI” (Remember Black George Washington?). We MUST have one Federal Standard instead of a patchwork of 50 State Regulatory Regimes. If we don’t, then China will easily catch us in the AI race. Put it in the NDAA, or pass a separate Bill, and nobody will ever be able to compete with America.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115573090200730933</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>AI, U.S. Economy, Regulation, China, NDAA</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Information Technology, Industrials</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>The tweet supports AI investment and warns against overregulation, indirectly signaling potential policy changes that could impact the tech sector and broader market sentiment.</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Nov 19, 2025, 7:36 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>2025-11-18 17:35:00 EST</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>I don’t care when the Senate passes the House Bill, whether tonight, or at some other time in the near future, I just don’t want Republicans to take their eyes off all of the Victories that we’ve had, including THE GREAT BIG BEAUTIFUL BILL, Closed Borders, No Men in Women’s Sports or Transgender for Everyone, ending DEI, stopping Biden’s Record Setting Inflation, Biggest Tax and Regulation Cuts in History, stopping EIGHT Wars, rebuilding our Military, being RESPECTED by every Country in the World, having Trillions of Dollars INVESTED in the U.S.A., having created the “HOTTEST” Country anywhere in the World, and even delivering a HUGE DEFEAT to the Democrats on the Shutdown. MAKE AMERICA GREAT AGAIN!</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115573085494912311</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>tax cuts, regulation cuts, inflation, military spending, shutdown</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Financials, Industrials, Consumer Discretionary, Energy</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>The tweet references broad economic themes like tax cuts, regulation cuts, inflation, and investment, which can impact market sentiment for multiple sectors but doesn't single out specific companies.</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Nov 19, 2025, 7:35 AM</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>I don’t care when the Senate passes the House Bill, whether tonight, or at some other time in the near future, I just don’t want Republicans to take their eyes off all of the Victories that we’ve had, including THE GREAT BIG BEAUTIFUL BILL, Closed Borders, No Men in Women’s Sports or Transgender for Everyone, ending DEI, stopping Biden’s Record Setting Inflation, Biggest Tax and Regulation Cuts in History, stopping EIGHT Wars, rebuilding our Military, being RESPECTED by every Country in the World, having Trillions of Dollars INVESTED in the U.S.A., having created the “HOTTEST” Country anywhere in the World, and even delivering a HUGE DEFEAT to the Democrats on the Shutdown. MAKE AMERICA GREAT AGAIN!</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://truthsocial.com/@realDonaldTrump/posts/115573085494912311</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>tax cuts, regulation cuts, inflation, military spending, shutdown</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Financials, Industrials, Consumer Discretionary, Energy</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>The tweet references broad economic themes like tax cuts, regulation cuts, inflation, and investment, which can impact market sentiment for multiple sectors but doesn't single out specific companies.</t>
         </is>
       </c>
     </row>

--- a/trump_posts_AI_analysis.xlsx
+++ b/trump_posts_AI_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,45 +498,53 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-29 16:17:00</t>
+          <t>2025-12-09 02:45:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nov 30, 2025, 6:17 AM</t>
+          <t>Dec 09, 2025, 4:45 PM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>winning is always nice</t>
+          <t>because of tariffs easily and quickly applied our national security has been greatly enhanced and we have become the financially strongest country by far anywhere in the world only dark and sinister forces would want to see that end</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Winning is always nice!</t>
+          <t>Because of Tariffs, easily and quickly applied, our National Security has been greatly enhanced, and we have become the financially strongest Country, by far, anywhere in the World. Only dark and sinister forces would want to see that end!!!</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://truthsocial.com/@realDonaldTrump/posts/115635064661785681</t>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115688492399516072</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>0.45</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Tariffs, National Security, Economy, Trade Policy, Financial Strength</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Financials, Industrials, Materials, Consumer Discretionary, Energy</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>The tweet contains no company references or economic content, so it is unlikely to have a measurable market impact.</t>
+          <t>Tariffs and trade policy create broad yet indirect market effects across multiple sectors, with potential upside for financials and industrials due to optimistic sentiment while exposing trade-sensitive areas to volatility.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -544,27 +552,28 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-11-29 15:53:00</t>
+          <t>2025-12-09 02:37:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nov 30, 2025, 5:53 AM</t>
+          <t>Dec 09, 2025, 4:37 PM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>great being with the highly respected future king of saudi arabia mohammed bin salman he is doing tremendous things for his country</t>
+          <t>the biggest threat in history to united states national security would be negative decision on tariffs by the s supreme court we would be financially defenseless now europe is going to tariffs against china as they already do against others we would not be allowed to do what others already do</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Great being with the Highly Respected future King of Saudi Arabia, Mohammed bin Salman. He is doing tremendous things for his Country!</t>
+          <t>The biggest threat in history to United States National Security would be a negative decision on Tariffs by the U.S. Supreme Court. We would be financially defenseless. Now Europe is going to Tariffs against China, as they already do against others. We would not be allowed to do what others already do!
+https://justthenews.com/government/diplomacy/european-countries-threaten-tariffs-china-following-trump-trade-deficits</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://truthsocial.com/@realDonaldTrump/posts/115634967838729337</t>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115688461364044258</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -573,24 +582,24 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="H3" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Mohammed bin Salman, Saudi Arabia, oil, geopolitics, energy</t>
+          <t>Tariffs, Supreme Court, Europe, China, United States</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Industrials, Materials, Consumer Discretionary, Financials, Energy</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>A positive statement about a foreign political leader with potential implications for oil markets and geopolitical risk sentiment, but no direct reference to a U.S.-listed company.</t>
+          <t>Tariff policy uncertainty and cross-border trade tensions threaten global growth and could weigh on equity markets, especially for exporters and sensitive sectors.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -598,870 +607,4992 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-12-08 17:55:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dec 09, 2025, 7:55 AM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>mexico continues to violate our comprehensive water treaty and this violation is seriously hurting our beautiful texas crops and livestock mexico still owes the s over 800 000 acre feet of water for failing to comply with our treaty over the past five years the s needs mexico to release 200 000 acre feet of water before december 31st and the rest must come soon after as of now mexico is not responding and it is very unfair to our s farmers who deserve this much needed water that is why have authorized documentation to impose 5 tariff on mexico if this water isn released immediately the longer mexico takes to release the water the more our farmers are hurt mexico has an obligation to fix this now thank you for your attention to this matter</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mexico continues to violate our comprehensive Water Treaty, and this violation is seriously hurting our BEAUTIFUL TEXAS CROPS AND LIVESTOCK. Mexico still owes the U.S over 800,000 acre-feet of water for failing to comply with our Treaty over the past five years. The U.S needs Mexico to release 200,000 acre-feet of water before December 31st, and the rest must come soon after. As of now, Mexico is not responding, and it is very unfair to our U.S. Farmers who deserve this much needed water. That is why I have authorized documentation to impose a 5% Tariff on Mexico if this water isn’t released, IMMEDIATELY. The longer Mexico takes to release the water, the more our Farmers are hurt. Mexico has an obligation to FIX THIS NOW. Thank you for your attention to this matter!</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115686410399815717</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Tariffs, Mexico, Water treaty, Acre feet, Farmers</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Industrials, Materials, Consumer Discretionary, Financials</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Tariffs on Mexico in response to the water dispute would disrupt cross-border trade and hurt agricultural supply chains, creating indirect pressure across Industrials, Materials, and Consumer Discretionary sectors with moderate market impact.</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-12-08 16:29:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dec 09, 2025, 6:29 AM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>i have informed president xi of china that the united states will allow nvidia to ship its h200 products to approved customers in china and other countries under conditions that allow for continued strong national security president xi responded positively 25 will be paid to the united states of america this policy will support american jobs strengthen s manufacturing and benefit american taxpayers the biden administration forced our great companies to spend billions of dollars building degraded products that nobody wanted terrible idea that slowed innovation and hurt the american worker that era is over we will protect national security create american jobs and keep america lead in ai nvidia u customers are already moving forward with their incredible highly advanced blackwell chips and soon rubin neither of which are part of this deal my administration will always put america first the department of commerce is finalizing the details and the same approach will apply to amd intel and other great american companies make america great again</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>I have informed President Xi, of China, that the United States will allow NVIDIA to ship its H200 products to approved customers in China, and other Countries, under conditions that allow for continued strong National Security. President Xi responded positively! $25% will be paid to the United States of America. This policy will support American Jobs, strengthen U.S. Manufacturing, and benefit American Taxpayers. The Biden Administration forced our Great Companies to spend BILLIONS OF DOLLARS building “degraded” products that nobody wanted, a terrible idea that slowed Innovation, and hurt the American Worker. That Era is OVER! We will protect National Security, create American Jobs, and keep America’s lead in AI. NVIDIA’s U.S. Customers are already moving forward with their incredible, highly advanced Blackwell chips, and soon, Rubin, neither of which are part of this deal. My Administration will always put America FIRST. The Department of Commerce is finalizing the details, and the same approach will apply to AMD, Intel, and other GREAT American Companies. MAKE AMERICA GREAT AGAIN!</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115686072737425841</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>NVIDIA, AMD, Intel, export controls, national security</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Information Technology, Industrials</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>The tweet signals government support for U.S. chipmakers and expands potential export permissions that could boost Nvidia and other domestic players. For Nvidia (NVDA): The policy enabling Nvidia to ship H200 to approved Chinese customers could raise near-term sales and investor optimism, supporting Nvidia's stock and fundamentals. For AMD (AMD): The stated approach applied to AMD suggests a favorable regulatory environment for US AI chips, potentially improving competitiveness and market sentiment toward AMD. For Intel (INTC): The same approach for Intel implies continued access to favorable export conditions, with potential positive impact on Intel's revenue prospects and investor confidence. NVDA, AMD, INTC</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-12-08 14:47:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dec 09, 2025, 4:47 AM</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>impotent europeans can only fume as trump rightly sidelines them from ukraine deal</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Impotent Europeans can only fume as Trump rightly sidelines them from Ukraine deal:https://nypost.com/2025/12/07/opinion/impotent-europeans-can-only-fume-as-trump-tries-for-ukraine-deal/</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115685670623938058</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Ukraine deal, Europe, European Union, Trump, Geopolitics</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Energy, Industrials, Financials</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>It signals a geopolitical shift with indirect market implications for energy, defense, and European markets.</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-12-08 09:25:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dec 08, 2025, 11:25 PM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>the only reason marjorie traitor brown green turns brown under stress went bad is that she was jilted by the president of the united states certainly not the first time she has been jilted too much work not enough time and her ideas are now really bad she sort of reminds me of rotten apple marjorie is not america first or maga because nobody could have changed her views so fast and her new views are those of very dumb person that was proven last night when washed up trump hating 60 minutes correspondent lesley stahl who still owes me an apology from when she attacked me on the show with serious conviction that hunter biden laptop from hell was produced by russia not hunter himself totally proven wrong interviewed very poorly prepared traitor who in her confusion made many really stupid statements my real problem with the show however wasn the low iq traitor it was that the new ownership of 60 minutes paramount would allow show like this to air they are no better than the old ownership who just paid me millions of dollars for fake reporting about your favorite president me since they bought it 60 minutes has actually gotten worse oh well far worse things can happen s hereby demand complete and total apology though far too late to be meaningful from lesley stahl and 60 minutes for her incorrect and libelous statements about hunter laptop president djt</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>The only reason Marjorie “Traitor” Brown (Green turns Brown under stress!) went BAD is that she was JILTED by the President of the United States (Certainly not the first time she has been jilted!). Too much work, not enough time, and her ideas are, NOW, really BAD - She sort of reminds me of a Rotten Apple! Marjorie is not AMERICA FIRST or MAGA, because nobody could have changed her views so fast, and her new views are those of a very dumb person. That was proven last night when washed up, Trump hating, 60 Minutes “correspondent,” Lesley Stahl, who still owes me an apology from when she attacked me on the show (with serious conviction!), that Hunter Biden’s LAPTOP FROM HELL was produced by Russia, not Hunter himself (TOTALLY PROVEN WRONG!), interviewed a very poorly prepared Traitor, who in her confusion made many really stupid statements. My real problem with the show, however, wasn’t the low IQ traitor, it was that the new ownership of 60 Minutes, Paramount, would allow a show like this to air. THEY ARE NO BETTER THAN THE OLD OWNERSHIP, who just paid me millions of Dollars for FAKE REPORTING about your favorite President, ME! Since they bought it, 60 Minutes has actually gotten WORSE! Oh well, far worse things can happen. P.S. I hereby demand a complete and total APOLOGY, though far too late to be meaningful, from Lesley Stahl and 60 Minutes for her incorrect and Libelous statements about Hunter’s Laptop!!! President DJT</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115684406134734247</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Paramount Global, PARA, 60 Minutes, media ownership, advertisers</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Direct impact on Paramount Global's stock sentiment due to criticism of its ownership of 60 Minutes and perceived decline in credibility. Paramount Global (PARA): negative impact as the tweet frames ownership as problematic, potentially reducing advertiser willingness and investor confidence. PARA.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-12-08 08:20:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dec 08, 2025, 10:20 PM</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>there must be only one rulebook if we are going to continue to lead in ai we are beating all countries at this point in the race but that won last long if we are going to have 50 states many of them bad actors involved in rules and the approval process there can be no doubt about this ai will be destroyed in its infancy will be doing one rule executive order this week you can expect company to get 50 approvals every time they want to do something that will never work</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>There must be only One Rulebook if we are going to continue to lead in AI. We are beating ALL COUNTRIES at this point in the race, but that won’t last long if we are going to have 50 States, many of them bad actors, involved in RULES and the APPROVAL PROCESS. THERE CAN BE NO DOUBT ABOUT THIS! AI WILL BE DESTROYED IN ITS INFANCY! I will be doing a ONE RULE Executive Order this week. You can’t expect a company to get 50 Approvals every time they want to do something. THAT WILL NEVER WORK!</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115684148454828379</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>AI, executive order, regulation, approval process, technology policy</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Information Technology, Financials</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>The tweet signals heightened regulatory risk and restrictive approvals for AI development, potentially weighing on AI-related equities and broader tech policy sentiment.</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-12-07 14:50:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dec 08, 2025, 4:50 AM</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>while the united states has other methods of charging tariffs against foreign countries many of whom have for years taken advantage of our nation the current method of tariffing before the united states supreme court is far more direct less cumbersome and much faster all ingredients necessary for strong and decisive national security result speed power and certainty are at all times important factors in getting the job done in lasting and victorious manner have settled 8 wars in 10 months because of the rights clearly given to the president of the united states if countries didn think these rights existed they would have said so loud and clear thank you for your attention to this matter president donald trump</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>While the United States has other methods of charging TARIFFS against foreign countries, many of whom have, for YEARS, TAKEN ADVANTAGE OF OUR NATION, the current method of Tariffing before the United States Supreme Court is far more DIRECT, LESS CUMBERSOME, and MUCH FASTER, all ingredients necessary for A STRONG AND DECISIVE NATIONAL SECURITY RESULT. SPEED, POWER, AND CERTAINTY ARE, AT ALL TIMES, IMPORTANT FACTORS IN GETTING THE JOB DONE IN A LASTING AND VICTORIOUS MANNER. I have settled 8 Wars in 10 months because of the rights clearly given to the President of the United States. If countries didn’t think these rights existed, they would have said so, LOUD AND CLEAR! Thank you for your attention to this matter. President DONALD J. TRUMP</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115680021178321608</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Tariffs, Presidential powers, Supreme Court, National Security, U.S. Economy</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Industrials, Materials, Financials, Consumer Discretionary, Energy</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Tariff-centric policy emphasis and assertions of executive authority imply broader, indirect effects on trade dynamics, costs, and investor expectations across multiple sectors.</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-12-07 13:50:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dec 08, 2025, 3:50 AM</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>it was the obama doj of course that viciously went after the great roger clemens roger was fully acquitted of all charges president djt</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>It was the Obama DOJ (of course!) that viciously went after the great Roger Clemens. ROGER WAS FULLY ACQUITTED OF ALL CHARGES!!! President DJT</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115679783474101246</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>DOJ, Roger Clemens, Obama, Acquittal, Trump</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>The tweet discusses political controversy and a legal case with no direct link to companies or market sectors, implying no measurable market impact.</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-12-07 13:45:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dec 08, 2025, 3:45 AM</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>roger clemens who won 354 games went through his own witch hunt he was acquitted of all charges if he doesn get into the hall of fame he should sue the hell out of major league baseball president djt</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Roger Clemens, who won 354 games, went through his own Witch Hunt. HE WAS ACQUITTED OF ALL CHARGES!!! If he doesn’t get into the Hall of Fame, he should sue the hell out of Major League Baseball! President DJT</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115679765232612242</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Roger Clemens, Major League Baseball, Hall of Fame, Donald Trump, lawsuit</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary, Communication Services, Industrials</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Discusses MLB Hall of Fame and a political figure in a negative tone, implying a minor indirect effect on entertainment/media sentiment rather than any direct stock impact.</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-12-06 23:35:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dec 07, 2025, 1:35 PM</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>watch president trump delivers remarks at state department kennedy center honors dinner</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>WATCH: President Trump Delivers Remarks at State Department Kennedy Center Honors Dinner:https://www.c-span.org/program/white-house-event/pres-trump-delivers-remarks-at-state-dept-kennedy-center-honors-dinner/670055</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115676421048496642</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>No direct or indirect impact on markets is indicated by the tweet.</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-12-06 15:12:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dec 07, 2025, 5:12 AM</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>another stabbing by an illegal migrant in charlotte north carolina what going on in charlotte democrats are destroying it like everything else piece by piece president djt</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Another stabbing by an Illegal Migrant in Charlotte, North Carolina. What’s going on in Charlotte? Democrats are destroying it, like everything else, piece by piece!!! President DJT</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115674446098726232</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Immigration policy, Crime in Charlotte, Democrats, Political risk, Markets</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary, Financials, Real Estate, Industrials</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Negative political rhetoric and crime concerns may dent consumer confidence and risk sentiment, leading to indirect, modest market impact.</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-12-06 14:55:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dec 07, 2025, 4:55 AM</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>why would real republican vote against this when the dems have been doing it for years if they stupidly say no vote them out of office they are not worthy and will be there to help thank you indiana</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Why would a REAL Republican vote against this when the Dems have been doing it for years??? If they stupidly say no, vote them out of Office - They are not worthy - And I will be there to help! Thank you Indiana!</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115674376798726553</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Economy, Markets, Politics, Indiana</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Financials, Industrials</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>The tweet comments on partisan voting behavior without citing specific policies or companies, suggesting a mild, indirect impact on market sentiment and risk.</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-12-06 14:48:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Dec 07, 2025, 4:48 AM</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>trump blasts indiana republicans who defied redistricting pressure</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Trump blasts Indiana Republicans who defied redistricting pressure:https://www.axios.com/2025/11/16/trump-indiana-republicans-redistricting-pressure</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115674349662139906</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Redistricting, Indiana, Trump, Political Risk, Market Volatility</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Financials, Industrials</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>It signals political risk and policy uncertainty around redistricting, which could modestly affect market sentiment and investment decisions.</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-12-06 13:45:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dec 07, 2025, 3:45 AM</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>the baseball hall of fame committee is voting on admitting new members tomorrow and these highly respected owners executives writers and most importantly hall of famers should do the right thing by finally putting roger clemens known as the rocket in the hall roger is clearly one of the greatest pitchers of all time with amazing achievements that include winning 354 games seven cy young awards record by lot and playing in six world series winning two the rocket is second only to another all time great hall of famer nolan ryan in most strike outs roger clemens is the only pitcher who has won 300 games to not have the honor of being enshrined in the hall of fame which is total travesty the only reason he is not is because of rumors and innuendo which were not proven he never tested positive and when the obama doj went after him in criminal case claiming that he did take steroids roger who has always denied taking any drugs was fully acquitted of all charges the rocket nickname he earned very early in his career because of his blazing fastball was just as dominant before those erroneous allegations were leveled against him sincerely hope that the committee uses its great judgment roger opponents never proved thing against him and he may have the best pitching record all told in the history of baseball and the baseball commissioner has the strength wisdom and power to do the right thing and put roger clemens in the baseball hall of fame immediately thank you for your attention to this matter president djt</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>The Baseball Hall of Fame Committee is voting on admitting new Members TOMORROW, and these highly respected owners, executives, writers, and, most importantly, Hall of Famers, should do the right thing by finally putting Roger Clemens, known as “The Rocket,” in the Hall! Roger is clearly one of the Greatest Pitchers of All Time, with amazing achievements that include winning 354 Games, seven Cy Young Awards (A Record, by a lot!), and playing in six World Series, winning two. “The Rocket” is second only to another All Time GREAT, Hall of Famer Nolan Ryan, in most strike-outs. Roger Clemens is the only pitcher who has won 300 games to not have the honor of being enshrined in the Hall of Fame, which is a total travesty! The only reason he is not is because of rumors and innuendo, which were not proven. He never tested positive and, when the Obama DOJ went after him in a criminal case claiming that he did take steroids, Roger, who has always denied taking any drugs, was FULLY ACQUITTED OF ALL CHARGES. “The Rocket,” a nickname he earned very early in his career because of his blazing fastball, was just as dominant before those erroneous allegations were leveled against him. I sincerely hope that the Committee uses its great judgment (Roger’s opponents never proved a thing against him, and he may have the best pitching record, all told, in the History of Baseball!), and the Baseball Commissioner has the Strength, Wisdom, and Power to do the right thing, and put Roger Clemens in The Baseball Hall of Fame, IMMEDIATELY! Thank you for your attention to this matter. President DJT</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115674102596009965</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Roger Clemens, Hall of Fame, Baseball Commissioner, DOJ, Nolan Ryan</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Overall market impact is minimal since the tweet concerns Hall of Fame voting and a sports figure, with no reference to companies, stock movements, or economic policy.</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-12-06 12:13:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Dec 07, 2025, 2:13 AM</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>college sports is in big trouble just like said it would be judge with no knowledge or experience ruled and rather than fighting the sports reps folded can do that</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>College Sports is in $BIG trouble, just like I said it would be. A judge, with no knowledge or experience, ruled and, rather than fighting, the sports reps FOLDED. Can’t do that.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115673738803217830</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>NCAA, College Sports, Media Rights, NIL, Judicial Ruling</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Communication Services, Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>The turmoil in college sports signals potential disruption to media rights and sponsorship revenue, with spillovers to broadcasters and streaming platforms.</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-12-06 12:06:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Dec 07, 2025, 2:06 AM</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>dhs disputes democrat claim she was pepper sprayed by ice</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>DHS disputes Democrat's claim she was pepper sprayed by ICE:https://www.foxnews.com/video/6386116759112</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115673713225538385</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DHS, ICE, immigration policy, pepper spray, Democrat claim</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>The tweet concerns government agencies and political dispute, which could indirectly influence market sentiment and policy expectations without referencing a specific company.</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-12-06 12:04:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Dec 07, 2025, 2:04 AM</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>cristiano ronaldo the great soccer football player just called to thank me for his tour this week of the white house and oval office what an incredible guy he is not only as an athlete but as person you just don get any better president djt</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo, the GREAT soccer (football!) player, just called to thank me for his tour this week of the White House and Oval Office. What an incredible guy he is, not only as an athlete, but as a person. You just don’t get any better!!! President DJT</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115673706520574050</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>No measurable impact on markets or sectors as the tweet discusses a personal event with no economic content.</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-12-06 11:58:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Dec 07, 2025, 1:58 AM</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>dr oz warns walz fraud could cost minnesota medicaid</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Dr. Oz warns Walz fraud could cost Minnesota Medicaid:
+https://www.foxnews.com/video/6386119914112</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115673681347141352</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Medicaid, Fraud, Minnesota, Dr. Oz, Walz</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Health Care</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Indirect impact through potential changes in Medicaid spending and health-care service providers in Minnesota, which could ripple into health-care stocks and budgets.</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-12-06 11:57:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Dec 07, 2025, 1:57 AM</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>greg gutfeld it took trump no time to get the dc pipe bomber</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Greg Gutfeld: “It took Trump no time to get the DC pipe bomber.”
+https://www.foxnews.com/video/6386087518112</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115673677994343056</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Trump, DC pipe bomber</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>No clear market-related impact as the tweet discusses politics and a criminal event without mentioning companies or sectors.</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-12-06 11:57:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Dec 07, 2025, 1:57 AM</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>exclusive watch coast guard helicopter sniper disable go fast drug vessel in interdiction operation</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>EXCLUSIVE: Watch a Coast Guard helicopter sniper disable a go-fast drug vessel in interdiction operation.
+https://www.foxnews.com/video/6386061745112</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115673676055612429</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Coast Guard, Interdiction, Drug Vessel, Helicopter, Sniper</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Energy, Industrials</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Neutral note about a Coast Guard interdiction operation; the event could influence shipping risk and security sentiment, with potential but limited indirect effects on energy logistics and industrials.</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-12-06 11:50:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Dec 07, 2025, 1:50 AM</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>david marcus trump aggression toward venezuela warning to putin</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>DAVID MARCUS: Trump's aggression toward Venezuela a warning to Putin:https://www.foxnews.com/opinion/david-marcus-trumps-aggression-toward-venezuela-warning-putin</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115673648564690818</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Venezuela, oil, sanctions, Putin, geopolitics</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Energy, Industrials, Financials</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Geopolitical tensions involving Venezuela and Russia could influence energy markets and risk sentiment without a direct corporate trigger.</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-12-06 11:48:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Dec 07, 2025, 1:48 AM</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>angel families thank trump in new thanksgiving video for his border security efforts we appreciate you</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Angel Families thank Trump in new Thanksgiving video for his border security efforts: 'We appreciate you':https://www.foxnews.com/us/angel-families-thank-trump-new-thanksgiving-video-for-his-border-security-efforts-we-appreciate-you</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115673641220529524</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>border security, Trump, angel families, thanksgiving video, policy impact</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>The tweet signals ongoing political support for border security, which could modestly influence sentiment and policy expectations affecting industrial and infrastructure-related sectors.</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-12-06 11:09:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Dec 07, 2025, 1:09 AM</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>such great honor thank you fifa and have historic world cup</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Such a great honor. Thank you FIFA, and have a historic World Cup!
+https://www.newsmax.com/newsfront/trump-fifa-peace-prize/2025/12/05/id/1237219/</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115673487263910414</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>The tweet expresses positive sentiment about FIFA and the World Cup but does not reference any companies, CEOs, or actionable economic information that could impact markets.</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-12-06 08:07:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Dec 06, 2025, 10:07 PM</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>caitlin collin of fake news cnn always stupid and nasty asked me why the new ballroom was costing more money than originally thought one year ago said because it is going to be double the size and the quality of finishes and interiors has been brought to the highest level also the column span has been substantially increased for purposes of viewing it is actually under budget and ahead of schedule as my jobs always are it just much bigger and more beautiful than originally planned interestingly and seldom reported there are no taxpayer dollars involved it is being fully paid for by private donations fake news cnn and the guy who runs the whole corrupt operation that owns it is one of the worst in the business their ratings are so low that they re not even counted or relevant anymore maga</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Caitlin Collin’s of Fake News CNN, always Stupid and Nasty, asked me why the new Ballroom was costing more money than originally thought one year ago. I said because it is going to be double the size, and the quality of finishes and interiors has been brought to the highest level. Also, the column SPAN has been substantially  increased for purposes of viewing. It is actually under budget and ahead of schedule, as my jobs always are. It’s just much bigger and more beautiful than originally planned. Interestingly, and seldom reported, there are no taxpayer dollars involved. It is being fully paid for by private donations. FAKE NEWS CNN, and the guy who runs the whole corrupt operation that owns it, is one of the worst in the business. Their ratings are so low that they’re not even counted or relevant anymore. MAGA!!!</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115672772354075395</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>CNN, Warner Bros. Discovery, Ratings, Advertising, Private Donations</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Communication Services, CNN, Warner Bros. Discovery</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Negative framing of CNN and its owner may weigh on media sector sentiment and advertising-related stocks, though no earnings or revenue data is presented.</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-12-06 07:31:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Dec 06, 2025, 9:31 PM</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>why would fox and friends weekend of all things put on stockbroker named peter schiff trump hating loser who has already proven to be wrong either the show made mistake or it is heading in different direction he thinks prices are going up when in fact they are coming substantially down gasoline hit 1 99 gallon yesterday in certain states and is down big since biden other prices are almost all down biden caused the affordability crisis m fixing it along with everything else much of it like the border is already fixed check out the booker who put this jerk on</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Why would Fox and Friends Weekend (of all things?) put on a “Stockbroker” named Peter Schiff, a Trump hating loser who has already proven to be wrong. Either the show made a mistake, or it is heading in a different direction. He thinks prices are going up when, in fact, they are coming substantially down. Gasoline hit $1.99 a gallon yesterday, in certain states, and is down BIG since Biden. Other prices are almost all down. Biden caused the AFFORDABILITY CRISIS, I’M FIXING IT, along with everything else! Much of it, like the Border, is already fixed. Check out the “booker” who put this jerk on!</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115672630683376515</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Peter Schiff, Gas prices, Biden, Affordability crisis, Fox News</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Energy, Financials, Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Raises macroeconomic concerns surrounding gas prices and Biden-era policy, signaling indirect effects on energy stocks and consumer spending rather than a direct impact on any specific company.</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-12-05 22:49:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Dec 06, 2025, 12:49 PM</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>dr james jones the great white house doctor has written fantastic book venom and valor white house physician assistant battle for survival in the amazon our nation is incredibly proud of brave patriots like dr jones who serve our country with distinction behind the scenes and do what is necessary to keep our nation safe and strong they are true heroes and an inspiration to us all get your copy today</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Dr. James Jones, the Great White House Doctor, has written a fantastic Book, “Venom and Valor: A White House Physician Assistant’s Battle for Survival in the Amazon.” Our Nation is incredibly proud of brave Patriots like Dr. Jones who serve our Country with distinction behind-the-scenes, and do what is necessary to keep our Nation safe and strong — They are true Heroes, and an inspiration to us all. Get your copy today!
+https://a.co/d/gA16m5w</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115670577719463498</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>No discernible market impact since the tweet is about a book and praises individuals with no economic or corporate references.</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-12-05 22:19:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dec 06, 2025, 12:19 PM</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>trump honored with fifa first peace prize</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Trump Honored With FIFA's First Peace Prize:https://www.newsmax.com/newsfront/trump-fifa-peace-prize/2025/12/05/id/1237219/</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115670459480108739</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>FIFA, peace prize, sports diplomacy, media coverage, markets</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Communication Services, Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>No direct company or CEO is named; the tweet mainly comments on a political/sports award with minimal immediate market impact, likely limited to modest sentiment effects in media and entertainment-related sectors.</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-12-05 19:36:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dec 06, 2025, 9:36 AM</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>today the cdc vaccine committee made very good decision to end their hepatitis vaccine recommendation for babies the vast majority of whom are at no risk of hepatitis a disease that is mostly transmitted sexually or through dirty needles the american childhood vaccine schedule long required 72 jabs for perfectly healthy babies far more than any other country in the world and far more than is necessary in fact it is ridiculous many parents and scientists have been questioning the efficacy of this schedule as have that is why have just signed presidential memorandum directing the department of health and human services to fast track comprehensive evaluation of vaccine schedules from other countries around the world and better align the s vaccine schedule so it is finally rooted in the gold standard of science and common sense am fully confident secretary robert kennedy jr and the cdc will get this done quickly and correctly for our nation children thank you for your attention to this matter maha</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Today, the CDC Vaccine Committee made a very good decision to END their Hepatitis B Vaccine Recommendation for babies, the vast majority of whom are at NO RISK of Hepatitis B, a disease that is mostly transmitted sexually, or through dirty needles. The American Childhood Vaccine Schedule long required 72 “jabs,” for perfectly healthy babies, far more than any other Country in the World, and far more than is necessary. In fact, it is ridiculous! Many parents and scientists have been questioning the efficacy of this “schedule,” as have I! That is why I have just signed a Presidential Memorandum directing the Department of Health and Human Services to “FAST TRACK” a comprehensive evaluation of Vaccine Schedules from other Countries around the World, and better align the U.S. Vaccine Schedule, so it is finally rooted in the Gold Standard of Science and COMMON SENSE! I am fully confident Secretary Robert F. Kennedy, Jr., and the CDC, will get this done, quickly and correctly, for our Nation’s Children. Thank you for your attention to this matter. MAHA!</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115669821715563033</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>vaccine schedule, CDC, HHS, presidential memorandum, vaccines</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Health Care</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>It signals a significant policy shift in vaccine schedules that could affect healthcare policy and vaccine-related spending, with potential but limited market impact on healthcare stocks.</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-12-05 19:35:00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Dec 06, 2025, 9:35 AM</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>congratulations to indiana tremendous republican state representatives led by great speaker todd huston bill sponsor ben smaltz and elections committee chairman tim wesco who just overwhelmingly voted to pass their new much fairer and improved congressional map it was my honor to win indiana six times including primaries in 2016 2020 and 2024 and this new map would give the incredible people of indiana the opportunity to elect two additional republicans in the 2026 midterm elections the indiana senate must now pass this map as is and get it to governor mike braun desk asap to deliver gigantic victory for republicans in the hoosier state and across the country am hearing that these nine senators some of whom are up for re election in 2026 and some in 2028 need encouragement to make the right decision blake doriot brett clark brian buchanan dan dernulc ed charbonneau greg goode jim buck rick niemeyer and ryan mishler let your voice be heard loud and clear in support of these senators doing the right thing thank you for your attention to this matter</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Congratulations to Indiana's tremendous Republican State Representatives, led by GREAT Speaker Todd Huston, Bill Sponsor Ben Smaltz, and Elections Committee Chairman Tim Wesco, who just overwhelmingly voted to pass their new, much fairer, and improved, Congressional Map. It was my Honor to win Indiana six times, including Primaries, in 2016, 2020, and 2024, and this new Map would give the incredible people of Indiana the opportunity to elect TWO additional Republicans in the 2026 Midterm Elections.
+The Indiana Senate must now pass this Map, AS IS, and get it to Governor Mike Braun's desk, ASAP, to deliver a gigantic Victory for Republicans in the “Hoosier State,” and across the Country. I am hearing that these nine Senators, some of whom are up for Re-Election in 2026, and some in 2028, need encouragement to make the right decision: Blake Doriot, Brett Clark, Brian Buchanan, Dan Dernulc, Ed Charbonneau, Greg Goode, Jim Buck, Rick Niemeyer, and Ryan Mishler. Let your voice be heard loud and clear in support of these Senators doing the right thing. Thank you for your attention to this matter!</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115669815800105560</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>redistricting, Indiana, elections, Republicans, Governor Mike Braun</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>State-level political developments with no direct company or stock market impact, implying only minor indirect market effects.</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-12-05 09:32:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Dec 05, 2025, 11:32 PM</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>i have just approved tiny cars to be built in america manufacturers have long wanted to do this just like they are so successfully built in other countries they can be propelled by gasoline electric or hybrid these cars of the very near future are inexpensive safe fuel efficient and quite simply amazing start building them now thank you to the doj and the departments of transportation and environment enjoy president donald trump</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>I have just approved TINY CARS to be built in America. Manufacturers have long wanted to do this, just like they are so successfully built in other countries. They can be propelled by gasoline, electric, or hybrid. These cars of the very near future are inexpensive, safe, fuel efficient and, quite simply, AMAZING!!! START BUILDING THEM NOW! Thank you to the DOJ and the Departments of Transportation and Environment. ENJOY!!! President DONALD J. TRUMP</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115667445871563304</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Automotive manufacturing, Electric vehicles, Hybrid technology, Fuel efficiency, U.S. manufacturing policy</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary, Industrials, Energy</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>The White House backing for U.S. car production suggests favorable conditions for the automotive sector and related supply chains, potentially boosting sentiment and activity in manufacturing and energy markets.</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-12-05 09:20:00</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Dec 05, 2025, 11:20 PM</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>the democrats number one policy push is the complete and total obliteration of our great united states supreme court they will do this on their very first day in office through the simple termination of the filibuster should they win the upcoming elections the radical left democrats are looking at 21 justices with immediate ascension this would be terrible for our country fear not however republicans will not let it or any of their other catastrophic policies happen our country is now in very good hands maga</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>The Democrats number one policy push is the complete and total OBLITERATION of our great United States Supreme Court. They will do this on their very first day in office, through the simple Termination of the Filibuster, SHOULD THEY WIN THE UPCOMING ELECTIONS. The Radical Left Democrats are looking at 21 Justices, with immediate ascension. This would be terrible for our Country. Fear not, however, Republicans will not let it, or any of their other catastrophic policies, happen. Our Country is now in very good hands. MAGA!!!</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115667396705453017</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Supreme Court, filibuster, Democrats, Republicans, MAGA</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Financials, Industrials</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>This tweet signals political risk and potential policy shifts that could indirectly affect markets by influencing investor sentiment, with no specific company cited.</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-12-04 19:04:00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Dec 05, 2025, 9:04 AM</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>the great family of andrew wolfe our wonderful national guardsman who was badly injured protecting the capital of the united states of america he is in the process of healing his parents brother and all of his friends are praying just met them in the oval office they are fantastic american patriots</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>The great family of Andrew Wolfe — Our wonderful National Guardsman who was badly injured protecting the Capital of the United States of America. He is in the process of healing. His parents, brother, and all of his friends are praying. I just met them in the Oval Office — They are fantastic American Patriots!</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115664032674403982</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>No measurable impact on markets or sectors from this tweet.</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-12-04 18:51:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Dec 05, 2025, 8:51 AM</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>in the good old days long before reverend al sharpton had massive stomach surgery he would do anything to be with me but he has to be faithful to the radical left in order to keep his job as television commentator for nbc also in the group is the great james brown knew em all the good the bad and the ugly</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>In the good old days, long before Reverend Al Sharpton had massive stomach surgery, he would do anything to be with me, but he has to be faithful to the Radical Left in order to keep his job as a Television Commentator for NBC. Also in the group is the Great James Brown — I knew ‘em all, the good, the bad, and the ugly!</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115663982335866800</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>NBC, Comcast, NBCUniversal, television, media</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Direct references NBC, a major media company, which could sway sentiment around media equities but is unlikely to have a material market impact.</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-12-04 18:46:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Dec 05, 2025, 8:46 AM</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>first lady of technology melania trump pioneers flotus book with global enthusiasm</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>‘First Lady of Technology’ Melania Trump pioneers FLOTUS book with global enthusiasm:https://justthenews.com/government/white-house/first-lady-technology-melania-trump-pioneers-flotus-book-global-enthusiasm/</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115663961478701629</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Publishing, Media, Technology, Melania Trump, Global Enthusiasm</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Communication Services, Information Technology, Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Positive sentiment toward media/publishing and technology themes yields a mild indirect impact on related sectors without naming a specific company.</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-12-04 18:45:00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Dec 05, 2025, 8:45 AM</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ignore failing new york times trump remains most accessible energetic president in history</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Ignore Failing New York Times, Trump Remains Most Accessible, Energetic President in History:https://amac.us/newsline/politics/ignore-failing-new-york-times-trump-remains-most-accessible-energetic-president-in-history/</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115663957175232306</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>New York Times, economy, markets, president, leadership</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>No direct company or earnings are mentioned; any market impact would be indirect and arise from broader political sentiment rather than company-specific news.</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-12-04 18:44:00</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Dec 05, 2025, 8:44 AM</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>hooray for manhattan us attorney jay clayton and his war against gangs</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Hooray for Manhattan US Attorney Jay Clayton and his war against gangs:https://nypost.com/2025/12/01/opinion/hooray-for-manhattan-us-attorney-jay-clayton-and-his-war-against-gangs/</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115663952570644904</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Jay Clayton, Regulation, Markets, Law enforcement, Crime crackdown</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>The tweet expresses positive sentiment toward a law enforcement crackdown, which is unlikely to affect any specific stock but could influence overall investor sentiment and perceived regulatory risk.</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-12-04 18:43:00</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Dec 05, 2025, 8:43 AM</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>netanyahu submits request to president herzog for pardon</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Netanyahu submits request to President Herzog for pardon:https://www.israelnationalnews.com/news/418578</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115663947824431940</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Financials</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Geopolitical risk in Israel is likely to create modest, indirect market uncertainty.</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-12-04 12:02:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Dec 05, 2025, 2:02 AM</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>it is my honor to endorse maga warrior trever nehls who is running to represent the incredible people of texas 22nd congressional district trever brother is the great congressman from texas troy nehls he and his family are fierce advocates for our movement to make america great again as former fort bend county constable and retired s army colonel trever strongly supports our incredible law enforcement military and veterans and knows the wisdom and courage it takes to ensure law and order in congress trever will work hard to keep our now very secure border secure stop migrant crime grow our economy cut taxes and regulations promote made in the s advance american energy dominance champion election integrity and defend our always under siege second amendment trever nehls has my complete and total endorsement he will never let you down</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>It is my Honor to endorse MAGA Warrior TREVER NEHLS, who is running to represent the incredible people of Texas’ 22nd Congressional District.
+Trever's brother is the GREAT Congressman from Texas, Troy Nehls. He and his family are fierce advocates for our Movement to, MAKE AMERICA GREAT AGAIN. As a former Fort Bend County Constable, and retired U.S. Army Colonel, Trever strongly supports our incredible Law Enforcement, Military, and Veterans, and knows the Wisdom and Courage it takes to Ensure LAW AND ORDER. In Congress, Trever will work hard to Keep our now very Secure Border, SECURE, Stop Migrant Crime, Grow our Economy, Cut Taxes and Regulations, Promote MADE IN THE U.S.A., Advance American Energy DOMINANCE, Champion Election Integrity, and Defend our always under siege Second Amendment.
+Trever Nehls has my Complete and Total Endorsement – HE WILL NEVER LET YOU DOWN!</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115662373086221699</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Energy, Tax cuts, Regulations, Made in USA, Economic Growth</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Energy, Industrials, Financials</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>The tweet signals pro-growth policy priorities (tax cuts, deregulation, energy dominance) that could lift energy, industrials, and financials stocks and raise overall growth expectations.</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-12-04 12:01:00</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Dec 05, 2025, 2:01 AM</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>congressman john judge carter is fantastic representative for the great people of texas 31st congressional district judge served over 20 years as district court judge in williamson county prior to becoming very distinguished and respected s congressman he is working tirelessly to grow our economy cut taxes and regulations promote made in the s champion american energy dominance keep our now very secure border secure stop migrant crime murderers and other criminals from illegally entering our country strengthen our military veterans and defend our always under siege second amendment judge carter has my complete and total endorsement for re election he will never let you down</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Congressman John “Judge” Carter is a Fantastic Representative for the Great People of Texas’ 31st Congressional District!
+“Judge” served over 20 years as a District Court Judge in Williamson County prior to becoming a very distinguished and respected U.S. Congressman. He is working tirelessly to Grow our Economy, Cut Taxes and Regulations, Promote MADE IN THE U.S.A., Champion American Energy DOMINANCE, Keep our now very Secure Border, SECURE, Stop Migrant Crime, Murderers, and other Criminals from illegally entering our Country, Strengthen our Military/Veterans, and Defend our always under siege Second Amendment.
+Judge Carter has my Complete and Total Endorsement for Re-Election — HE WILL NEVER LET YOU DOWN!</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115662369700704369</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>American energy dominance, tax cuts, regulations, Made in the USA, energy sector</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Energy, Industrials, Financials</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Promotes broad pro-growth policies (tax cuts, regulatory relief, and American energy leadership) that could raise expectations for the overall economy and the energy sector, though it does not reference specific companies.</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-12-04 12:01:00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dec 05, 2025, 2:01 AM</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>congressman randy weber is doing fantastic job representing the wonderful people of texas 14th congressional district successful businessman randy knows the america first policies necessary to create great jobs unleash innovation and ensure american energy dominance he is fighting tirelessly to cut taxes and regulations promote made in the s keep our now very secure border secure stop migrant crime champion our farmers and american agriculture support our brave military veterans and protect our always under siege second amendment randy weber has my complete and total endorsement for re election he will never let you down</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Congressman Randy Weber is doing a fantastic job representing the wonderful people of Texas’ 14th Congressional District!
+A successful Businessman, Randy knows the America First Policies necessary to Create GREAT Jobs, Unleash Innovation, and Ensure American Energy DOMINANCE. He is fighting tirelessly to Cut Taxes and Regulations, Promote MADE IN THE U.S.A., Keep our now very Secure Border, SECURE, Stop Migrant Crime, Champion our Farmers and American Agriculture, Support our Brave Military/Veterans, and Protect our always under siege Second Amendment.
+Randy Weber has my Complete and Total Endorsement for Re-Election — HE WILL NEVER LET YOU DOWN!</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115662367365090087</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>American energy dominance, tax cuts, regulations, Made in USA, agriculture</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Energy, Industrials, Financials</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Policy-focused pro-growth stance advocating tax relief, deregulation, and energy leadership could indirectly lift energy, manufacturing, and related equities.</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-12-04 12:00:00</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Dec 05, 2025, 2:00 AM</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>congressman michael cloud is tremendous advocate for the great people of texas 27th congressional district as member of the powerful house appropriations committee michael is fighting hard to grow our economy cut taxes and regulations promote made in the s advance american energy dominance keep our now very secure border secure stop migrant crime support our brave military veterans and defend our always under siege second amendment michael cloud has my complete and total endorsement for re election he will not let you down</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Congressman Michael Cloud is a Tremendous Advocate for the Great People of Texas’ 27th Congressional District!
+As a Member of the POWERFUL House Appropriations Committee, Michael is fighting hard to Grow our Economy, Cut Taxes and Regulations, Promote MADE IN THE U.S.A., Advance American Energy DOMINANCE, Keep our now very Secure Border, SECURE, Stop Migrant Crime, Support our Brave Military/Veterans, and Defend our always under siege Second Amendment.
+Michael Cloud has my Complete and Total Endorsement for Re-Election — HE WILL NOT LET YOU DOWN!</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115662365895882699</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Energy dominance, Tax cuts, Regulations, Made in USA, Energy sector</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Energy, Industrials, Financials</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Pro-growth policy emphasis on energy dominance and deregulation signals a potential positive but broad effect on energy and related sectors without a specific company mandate.</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-12-04 12:00:00</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Dec 05, 2025, 2:00 AM</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>congressman nathaniel moran is doing fantastic job representing the great people of texas 1st congressional district nathaniel has an incredible record of success and strong support from his community in congress he is working tirelessly to grow our economy cut taxes and regulations promote made in the s support our amazing farmers and ranchers ensure american energy dominance keep our now very secure border secure stop migrant crime champion our brave military veterans and protect our always under siege second amendment nathaniel moran has my complete and total endorsement for re election he will not let you down</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Congressman Nathaniel Moran is doing a fantastic job representing the Great People of Texas’ 1st Congressional District!
+Nathaniel has an incredible Record of Success, and strong support from his Community. In Congress, he is working tirelessly to Grow our Economy, Cut Taxes and Regulations, Promote MADE IN THE U.S.A., Support our Amazing Farmers and Ranchers, Ensure American Energy DOMINANCE, Keep our now very Secure Border, SECURE, Stop Migrant Crime, Champion our Brave Military/Veterans, and Protect our always under siege Second Amendment.
+Nathaniel Moran has my Complete and Total Endorsement for Re-Election — HE WILL NOT LET YOU DOWN!</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115662364552464423</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>tax cuts, regulations, Made in USA, American energy dominance, farmers and ranchers</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Energy, Industrials</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Policymaker endorsement of pro-growth, energy-friendly policies suggests potential upside for the Energy sector and other growth-related industries, though no specific companies are named.</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-12-04 12:00:00</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Dec 05, 2025, 2:00 AM</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>congressman craig goldman is an incredible representative of texas 12th congressional district fifth generation texan craig served as state representative for 12 years prior to becoming distinguished and highly respected congressman in congress he is fighting tirelessly to champion our great farmers and american agriculture cut taxes and regulations advance american energy dominance promote made in the s keep our now very secure border secure stop migrant crime strengthen our military veterans and protect our always under siege second amendment craig goldman has my complete and total endorsement for re election he will not let you down</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Congressman Craig Goldman is an incredible Representative of Texas’ 12th Congressional District!
+A Fifth Generation Texan, Craig served as a State Representative for 12 years prior to becoming a distinguished and Highly Respected Congressman. In Congress, he is fighting tirelessly to Champion our Great Farmers and American Agriculture, Cut Taxes and Regulations, Advance American Energy DOMINANCE, Promote MADE IN THE U.S.A., Keep our now very Secure Border, SECURE, Stop Migrant Crime, Strengthen our Military/Veterans, and Protect our always under siege Second Amendment.
+Craig Goldman has my Complete and Total Endorsement for Re-Election — HE WILL NOT LET YOU DOWN!</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115662363349008651</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>American energy dominance, tax cuts, regulations, Made in USA, agriculture</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Energy, Financials, Industrials, Materials</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Positive sentiment toward pro-growth policies and stronger energy leadership could raise expectations for energy equities and related sectors, though the tweet provides high-level policy themes without specific actions.</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-12-04 07:25:00</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Dec 04, 2025, 9:25 PM</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>i dealing with the poisoning of america</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>I’m dealing with, THE POISONING OF AMERICA!</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115661283977133711</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Public Health, Healthcare Policy, Regulation, Economy</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Health Care</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Indirect impact due to potential regulatory and policy concerns in healthcare and public health issues.</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-12-03 23:32:00</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Dec 04, 2025, 1:32 PM</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>turnberry in scotland number one rated in the world</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Turnberry in Scotland. Number One Rated in the World!!!</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115659423260785023</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Turnberry, tourism, hospitality, Scotland, golf</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary, Real Estate</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Positive sentiment around a premier tourism and hospitality asset could lift investor interest in travel/leisure stocks and related real estate exposure, though no specific company is named.</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-12-03 23:31:00</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Dec 04, 2025, 1:31 PM</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>great our elections are crooked and rigged the voters know it must bring integrity back to voting start with voter id</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Great! Our Elections are  Crooked and Rigged. The voters know it. Must bring integrity back to Voting. START WITH VOTER ID!https://justthenews.com/politics-policy/elections/election-integrity-push-doj-track-compel-voter-roll-cleanups-over-half-us</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115659421538834732</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>voter ID, elections, policy, markets, integrity</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>The tweet highlights political and regulatory concerns around election integrity and voter ID, which could indirectly influence market sentiment and policy risk.</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-12-03 22:37:00</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Dec 04, 2025, 12:37 PM</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>great job by wonderful tricia mclaughlin dhs assistant secretary on the sean hannity show many illegals from around our nation charged with serious crimes this week tricia really knows her stuff</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Great job by wonderful TRICIA MCLAUGHLIN, DHS Assistant Secretary, on the Sean Hannity Show. Many Illegals from around our Nation charged with serious crimes this week. Tricia really knows her “STUFF!”</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115659207921669230</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Industrials, Financials</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>The tweet references immigration policy and comments on DHS leadership without mentioning specific companies, implying indirect macro effects with limited immediate stock-specific impact.</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-12-03 20:07:00</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Dec 04, 2025, 10:07 AM</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>the sleazebag governor of colorado jared polis refuses to allow an elderly woman tina peters who was unfairly convicted of what the democrats do cheating on elections out of jail she was convicted for trying to stop democrats from stealing colorado votes in the election she was preserving election records which she was obligated to do under federal law she has now served more than one year in jail and has eight years to go on top of everything else she is cancer survivor this lightweight governor who has allowed his state to go to hell tren de aragua anyone should be ashamed of himself free tina</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>The SLEAZEBAG Governor of Colorado, Jared Polis, refuses to allow an elderly woman, Tina Peters, who was unfairly convicted of what the Democrats do, cheating on Elections, out of jail! She was convicted for trying to stop Democrats from stealing Colorado Votes in the Election. She was preserving Election Records, which she was obligated to do under Federal Law. She has now served more than one year in jail, and has eight years to go. On top of everything else, she is a cancer “survivor.” This lightweight Governor, who has allowed his State to go to hell (Tren de Aragua, anyone?), should be ashamed of himself. FREE TINA!</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115658619396755634</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Colorado, Polis, Tina Peters, Democrats, election integrity</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>The tweet targets political figures and elections with no direct business, policy, or corporate references, so any market impact would be indirect and minor.</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-12-03 10:29:00</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Dec 04, 2025, 12:29 AM</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>for years the biden administration weaponized the justice system against their political opponents and anyone who disagreed with them one of the clearest examples of this was when crooked joe used the fbi and doj to take out member of his own party after highly respected congressman henry cuellar bravely spoke out against open borders and the biden border catastrophe sleepy joe went after the congressman and even the congressman wonderful wife imelda simply for speaking the truth it is unamerican and as previously stated the radical left democrats are complete and total threat to democracy they will attack rob lie cheat destroy and decimate anyone who dares to oppose their far left agenda an agenda that if left unchecked will obliterate our magnificent country because of these facts and others am hereby announcing my full and unconditional pardon of beloved texas congressman henry cuellar and imelda henry don know you but you can sleep well tonight your nightmare is finally over</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>For years, the Biden Administration weaponized the Justice System against their Political Opponents, and anyone who disagreed with them. One of the clearest examples of this was when Crooked Joe used the FBI and DOJ to “take out” a member of his own Party after Highly Respected Congressman Henry Cuellar bravely spoke out against Open Borders, and the Biden Border “Catastrophe.” Sleepy Joe went after the Congressman, and even the Congressman’s wonderful wife, Imelda, simply for speaking the TRUTH. It is unAmerican and, as I previously stated, the Radical Left Democrats are a complete and total threat to Democracy! They will attack, rob, lie, cheat, destroy, and decimate anyone who dares to oppose their Far Left Agenda, an Agenda that, if left unchecked, will obliterate our magnificent Country. Because of these facts, and others, I am hereby announcing my full and unconditional PARDON of beloved Texas Congressman Henry Cuellar, and Imelda. Henry, I don’t know you, but you can sleep well tonight — Your nightmare is finally over!</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115656343773820545</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>No direct references to companies or stock events; the tweet concerns political matters and pardons, implying negligible immediate market impact.</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-12-03 10:25:00</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Dec 04, 2025, 12:25 AM</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>such terrific victory for matt van epps and his wonderful family last night he will be fantastic representative for the great state of tennessee for many years to come</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Such a terrific Victory for Matt Van Epps, and his wonderful family, last night. He will be a fantastic Representative for the Great State of Tennessee for many years to come!</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115656327877659916</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Matt Van Epps, Tennessee politics, state election, policy expectations, business climate</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Industrials, Financials</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>A Tennessee election victory signals potential shifts in policy and regulatory expectations that could influence the local business climate, yielding a modest indirect impact on markets.</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-12-02 21:19:00</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Dec 03, 2025, 11:19 AM</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>congratulations to matt van epps on his big congressional win in the great state of tennessee the radical left democrats threw everything at him including millions of dollars another great night for the republican party president djt</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Congratulations to Matt Van Epps on his BIG Congressional WIN in the Great State of Tennessee. The Radical Left Democrats threw everything at him, including Millions of Dollars. Another great night for the Republican Party!!! President DJT</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115653238186658350</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Matt Van Epps, Donald Trump, campaign spending, Tennessee, Democrats</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>No clear market impact as the tweet discusses political results with no stated policy changes or corporate references.</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-12-02 21:16:00</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Dec 03, 2025, 11:16 AM</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>congratulations matt big win president djt</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Congratulations Matt. A BIG WIN! President DJT</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115653225494931779</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>The tweet expresses positive sentiment around a political figure without referencing specific companies or earnings impacts.</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-12-02 17:52:00</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Dec 03, 2025, 7:52 AM</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>any and all documents proclamations executive orders memorandums or contracts signed by order of the now infamous and unauthorized autopen within the administration of joseph biden jr are hereby null void and of no further force or effect anyone receiving pardons commutations or any other legal document so signed please be advised that said document has been fully and completely terminated and is of no legal effect thank you for your attention to this matter</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Any and all Documents, Proclamations, Executive Orders, Memorandums, or Contracts, signed by Order of the now infamous and unauthorized “AUTOPEN,” within the Administration of Joseph R. Biden Jr., are hereby null, void, and of no further force or effect. Anyone receiving “Pardons,” “Commutations,” or any other Legal Document so signed, please be advised that said Document has been fully and completely terminated, and is of no Legal effect. Thank you for your attention to this matter!</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115652422974373513</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Executive orders, Policy uncertainty, Biden administration, Autopen, Pardons</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>It signals policy uncertainty and potential political risk, affecting market sentiment without targeting specific stocks.</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-12-02 17:35:00</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Dec 03, 2025, 7:35 AM</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>we had very productive call with president lula of brazil among the things discussed were trade how our countries could work together to stop organized crime sanctions imposed on various brazilian dignitaries tariffs and various other items president lula and established relationship at meeting which took place at the united nations and believe it set the stage for very good dialogue and agreement long into the future look forward to seeing and speaking with him soon much good will come out of this newly formed partnership</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>We had a very productive call with President Lula of Brazil. Among the things discussed were Trade, how our Countries could work together to stop Organized Crime, Sanctions imposed on various Brazilian dignitaries, Tariffs, and various other items. President Lula and I established a relationship at a meeting which took place at the United Nations, and I believe it set the stage for very good dialogue and agreement long into the future. I look forward to seeing and speaking with him soon. Much good will come out of this newly formed partnership!</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115652356733049190</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Brazil, trade, tariffs, sanctions, United Nations</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Financials, Industrials, Materials, Energy, Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Signals improved US-Brazil trade relations and potential changes to tariffs and sanctions that could boost cross-border trade and commodity markets, implying an indirect market impact.</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-12-02 12:43:00</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Dec 03, 2025, 2:43 AM</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>gb news world exclusive scoop with donald trump is channel most watched ever interview</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>GB News world exclusive scoop with Donald Trump is channel's most-watched ever interview:
+https://www.gbnews.com/news/gb-news-world-exclusive-donald-trump-bev-turner-most-watched-interview</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115651209876382028</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Donald Trump, GB News, Media, Political risk, Interviews</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Indirectly affects market sentiment through media coverage of a high-profile political figure, with limited impact on stocks.</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-12-02 09:36:00</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Dec 02, 2025, 11:36 PM</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>i am asking all america first patriots in tennessee 7th congressional district to please get out and vote for phenomenal candidate and maga warrior matt van epps you can win this election for matt who has my complete and total endorsement he will be great congressman and unlike his opponent he cherishes christianity and country music she has openly stated that she hates them both tn 07 polls close at 7 00 m if you are in line by 7 m stay in line and they must let you vote get out and vote vote vote for matt van epps he will never let you down find your voting location and hours at</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>I am asking all America First Patriots in Tennessee’s 7th Congressional District to please GET OUT AND VOTE for a phenomenal Candidate and MAGA Warrior, Matt Van Epps! You can win this Election for Matt, who has my Complete and Total Endorsement. HE WILL BE A GREAT CONGRESSMAN and, unlike his Opponent, he cherishes Christianity and Country Music — She has openly stated that she hates them both!
+TN-07: Polls close at 7:00 P.M. IF YOU ARE IN LINE BY 7 P.M., STAY IN LINE, AND THEY MUST LET YOU VOTE. GET OUT AND VOTE, VOTE, VOTE FOR MATT VAN EPPS — HE WILL NEVER LET YOU DOWN!
+Find your voting location and hours at:
+https://swampthevoteusa.com/tennessee/</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115650472826053655</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>This tweet expresses political endorsement with no policy details or market implications.</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-12-02 08:55:00</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Dec 02, 2025, 10:55 PM</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>two great people love dell president djt</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>TWO GREAT PEOPLE. I LOVE DELL!!! President DJT
+https://www.newsmax.com/us/michael-dell-donate-trump-accounts/2025/12/02/id/1236720/</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115650314096956008</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Direct</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Dell, Dell Technologies, DJT, Trump, President</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Direct: The tweet mentions Dell, a U.S.-listed company, indicating potential market relevance. For Dell: The endorsement by a high-profile political figure could bolster Dell's brand perception and may generate a modest uptick in DELL shares in the near term. DELL</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-12-02 07:51:00</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Dec 02, 2025, 9:51 PM</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>great news dallas county texas just went to all paper ballots many others are following suit more accurate totally secure with watermark paper faster and only 9 of the cost all republican governors should mandatorily do this save money and freedom lead the democrats out of their corrupt ways president djt</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Great news! Dallas County, Texas, just went to all PAPER BALLOTS. Many others are following suit! More accurate, totally secure with watermark paper, FASTER, and only 9% of the cost. All Republican Governors should mandatorily do this. Save Money and Freedom. Lead the Democrats out of their corrupt ways! President DJT</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115650062002934091</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>paper ballots, watermark, ballot security, cost savings, government procurement</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Information Technology, Materials, Industrials</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>The tweet promotes a move to secure, watermark paper ballots, which could boost demand for printing materials and election-technology services, leading to a modest indirect market impact.</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-12-02 05:29:00</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Dec 02, 2025, 7:29 PM</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>the great burt jones has taken big lead in the polls for governor of georgia why not he has been great lieutenant governor go burt go president djt</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>The great Burt Jones has taken a big lead in the polls for Governor of Georgia. Why not, he has been a GREAT Lieutenant Governor? Go Burt, Go! President DJT</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115649503125687789</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Burt Jones, Donald J. Trump</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>The tweet expresses political support and contains no references to companies, earnings, or policy that would influence financial markets.</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-12-01 23:10:00</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Dec 02, 2025, 1:10 PM</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>colorado free tina peters now</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Colorado, FREE TINA PETERS, NOW.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115648012587209049</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>The tweet references a political issue unrelated to specific companies or market dynamics, so it is unlikely to affect financial markets.</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-12-01 21:55:00</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Dec 02, 2025, 11:55 AM</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>great going anna paulina adam shifty schiff is guilty of crimes against our country</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Great going Anna Paulina. Adam “Shifty” Schiff is guilty of crimes against our Country!!!</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115647715850270252</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>The tweet does not mention any companies, sectors, or economic indicators, so it is unlikely to have a market impact.</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-12-01 21:53:00</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Dec 02, 2025, 11:53 AM</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>not even close call these people are threat to america</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Not even a close call. These people are a threat to America!!!</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115647708910290144</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>The tweet signals heightened political risk and negative sentiment that could weigh on overall market sentiment without referencing any specific company.</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-12-01 21:50:00</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Dec 02, 2025, 11:50 AM</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>looks like honduras is trying to change the results of their presidential election if they do there will be hell to pay the people of honduras voted in overwhelming numbers on november 30th the national electoral commission the official body charged with counting the votes abruptly stopped counting at midnight on november 30th their count showed close race between tito asfura and salvador nasralla with asfura holding narrow lead of 500 votes their tally was stopped when only 47 percent of the vote was counted it is imperative that the commission finish counting the votes hundreds of thousands of hondurans must have their votes counted democracy must prevail</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Looks like Honduras is trying to change the results of their Presidential Election. If they do, there will be hell to pay! The people of Honduras voted in overwhelming numbers on November 30th. The National Electoral Commission, the official body charged with counting the Votes, abruptly stopped counting at midnight on November 30th. Their count showed a close race between Tito Asfura and Salvador Nasralla with Asfura holding a narrow lead of 500 votes. Their tally was stopped when only 47 percent of the Vote was counted. It is imperative that the Commission finish counting the Votes. Hundreds of thousands of Hondurans must have their Votes counted. Democracy must prevail!</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115647697688351327</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Honduras, election, democracy, Tito Asfura, Salvador Nasralla</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Financials, Industrials</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>The tweet draws attention to potential manipulation in Honduras' election, which could affect regional political risk and investor sentiment with indirect implications for the Honduran economy.</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-12-01 21:17:00</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Dec 02, 2025, 11:17 AM</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>great job by jim hanson former s army special forces on jesse watters tonight really strong and knowledgeable on war against drugs president djt</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Great job by Jim Hanson, former U.S. Army Special Forces, on Jesse Watters tonight. Really strong and knowledgeable on WAR AGAINST DRUGS! President DJT</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115647567538614723</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>War on Drugs, Trump</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>The tweet contains no reference to specific companies or market-relevant actions, so it is unlikely to affect stock prices or sectors.</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-12-01 20:17:00</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Dec 02, 2025, 10:17 AM</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>mark kelly and the group of unpatriotic politicians were wrong to do what they did and they know it hope the people looking at them are not duped into thinking that it ok to openly and freely get others to disobey the president of the united states</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Mark Kelly and the group of Unpatriotic Politicians were WRONG to do what they did, and they know it! I hope the people looking at them are not duped into thinking that it’s OK to openly and freely get others to disobey the President of the United States!</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115647333846814832</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Political rhetoric against opponents may affect broad market sentiment and risk appetite, but it does not reference specific companies or earnings drivers.</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-12-01 19:20:00</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Dec 02, 2025, 9:20 AM</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>i am asking all america first patriots in tennessee 7th congressional district to please get out and vote tomorrow for phenomenal candidate matt van epps on election day tuesday december 2nd you can win this election for maga warrior matt van epps who has my complete and total endorsement he will be great congressman and unlike his opponent he cherishes christianity and country music she has openly stated that she hates them both tn 07 polls open in all counties no later than 9 00 m but some open as early as 7 00 m polls close at 7 00 m if you are in line by 7 m stay in line and they must let you vote election day is tomorrow december 2nd get out and vote vote vote for matt van epps he will never let you down find your voting location and hours at</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>I am asking all America First Patriots in Tennessee’s 7th Congressional District to please GET OUT AND VOTE TOMORROW for a phenomenal Candidate, Matt Van Epps, on Election Day, Tuesday, December 2nd! You can win this Election for MAGA Warrior Matt Van Epps, who has my Complete and Total Endorsement. HE WILL BE A GREAT CONGRESSMAN and, unlike his Opponent, he cherishes Christianity and Country Music — She has openly stated that she hates them both!
+TN-07: Polls open in all Counties no later than 9:00 A.M., but some open as early as 7:00 A.M. Polls close at 7:00 P.M. IF YOU ARE IN LINE BY 7 P.M., STAY IN LINE, AND THEY MUST LET YOU VOTE! Election Day is TOMORROW, December 2nd. GET OUT AND VOTE, VOTE, VOTE FOR MATT VAN EPPS — HE WILL NEVER LET YOU DOWN!
+Find your voting location and hours at:
+https://swampthevoteusa.com/tennessee/</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115647107696867275</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>The tweet expresses political endorsement with no explicit economic or market impact.</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-12-01 19:09:00</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Dec 02, 2025, 9:09 AM</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>obama sycophant the former attorney general of the united states who did so much to hurt our country and who weaponized the obama administration against the republican party and me eric holder known as fast and furious just gave speech where he emphatically stated above all else that democrats will pack the supreme court of the united states if they get the chance the word is he wants 21 radical left activist judges not being satisfied with the heretofore 15 that they were seeking it will be 21 they will destroy our constitution and there not thing that the republicans can do about it unless we terminate the filibuster which will lead to an easy win of the midterms and an even easier win in the presidential election of 2028 why would the republicans even think about giving them this opportunity the american people don want gridlock they want their leaders to get things done terminate the filibuster and have the most successful four years in the history of our country by far with not even the hint of shutdown of our great nation on january 30th</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Obama sycophant, the former Attorney General of the United States, who did so much to hurt our Country, and who weaponized the Obama Administration against the Republican Party (and ME!), Eric Holder (known as “FAST AND FURIOUS”) just gave a Speech where he emphatically stated, above all else, that Democrats will PACK the Supreme Court of the United States if they get the chance. The word is, he wants 21 Radical Left Activist Judges, not being satisfied with the heretofore 15 that they were seeking. It will be 21, they will destroy our Constitution, and there’s not a thing that the Republicans can do about it unless we TERMINATE THE FILIBUSTER, which will lead to an easy WIN of the Midterms, and an even easier WIN in the Presidential Election of 2028. Why would the Republicans even think about giving them this opportunity? The American People don’t want gridlock, they want their Leaders to GET THINGS DONE — TERMINATE THE FILIBUSTER, AND HAVE THE MOST SUCCESSFUL FOUR YEARS IN THE HISTORY OF OUR COUNTRY, BY FAR, WITH NOT EVEN THE HINT OF A SHUTDOWN OF OUR GREAT NATION ON JANUARY 30TH!</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115647063978030089</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Supreme Court, filibuster, Democrats, Republicans, Midterms</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Financials, Information Technology, Health Care, Consumer Discretionary, Industrials</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Signals potential policy uncertainty and regulatory risk affecting markets, but does not reference specific companies or actionable trades.</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-12-01 15:19:00</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Dec 02, 2025, 5:19 AM</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>welcome to minnesota great job governor walz</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Welcome to Minnesota — Great job Governor Walz!</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115646159943244507</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>The tweet does not mention any companies, earnings, or policy actions that would influence financial markets.</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:26:00</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Dec 02, 2025, 3:26 AM</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>first lady giving christmas salutations at the white house so nice</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>First Lady giving Christmas salutations at the White House. So nice!</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115645716721136333</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>The tweet concerns a social/cultural event with no direct reference to companies, sectors, or economic indicators, so it is unlikely to affect the financial markets.</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-12-01 10:55:00</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Dec 02, 2025, 12:55 AM</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>the united states is very satisfied with the results displayed through hard work and determination in the country of syria we are doing everything within our power to make sure the government of syria continues to do what was intended which is substantial in order to build true and prosperous country one of the things that has helped them greatly was my termination of very strong and biting sanctions believe this was truly appreciated by syria its leadership and its people it is very important that israel maintain strong and true dialogue with syria and that nothing takes place that will interfere with syria evolution into prosperous state the new president of syria ahmed al sharaa is working diligently to make sure good things happen and that both syria and israel will have long and prosperous relationship together this is historic opportunity and adds to the success already attained for peace in the middle east</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>The United States is very satisfied with the results displayed, through hard work and determination, in the Country of Syria. We are doing everything within our power to make sure the Government of Syria continues to do what was intended, which is substantial, in order to build a true and prosperous Country. One of the things that has helped them greatly was my termination of very strong and biting sanctions — I believe this was truly appreciated by Syria, its Leadership, and its People! It is very important that Israel maintain a strong and true dialogue with Syria, and that nothing takes place that will interfere with Syria’s evolution into a prosperous State. The new President of Syria, Ahmed al-Sharaa, is working diligently to make sure good things happen, and that both Syria and Israel will have a long and prosperous relationship together. This is a historic opportunity, and adds to the SUCCESS, already attained, for PEACE IN THE MIDDLE EAST!</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115645123576749080</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>sanctions, Syria, Israel, Middle East peace, Ahmed al Sharaa</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Energy, Industrials, Financials</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Sanctions relief for Syria and higher prospects for Middle East stability may improve sentiment but have only a modest indirect impact on markets.</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-12-01 00:45:00</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Dec 01, 2025, 2:45 PM</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>there are laws that impact our nation read title 18 chapter 115 section 2387 whoever with the intent to interfere impair influence the loyalty moral or discipline of the military and naval forces to be fined or imprisoned up to 10 years commander kirk lippold s navy ret this is right on point do what has to be done</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>There are laws that impact our Nation. Read Title 18, Chapter 115, Section 2387, “Whoever with the intent to interfere, impair, influence the loyalty, moral or discipline of the military and Naval Forces,……to be fined or imprisoned up to 10 years.” Commander Kirk Lippold, U.S. Navy, Ret. This is right on point. DO WHAT HAS TO BE DONE!!!</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115642722629712717</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>The message discusses laws and military conduct with no reference to companies, stock movements, or economic sectors, so it is unlikely to affect financial markets.</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-11-30 22:41:00</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Dec 01, 2025, 12:41 PM</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>dr marc siegel brilliantly wrote new best seller the miracles among us how god grace plays role in healing marc siegel is not only fantastic person he is very knowable one this is great book about truly important subject get it now president djt</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Dr. Marc Siegel brilliantly wrote a new Best Seller, “THE MIRACLES AMONG US, How God’s Grace Plays a Role In Healing.” Marc Siegel is not only a fantastic Person, he is a very knowable one. This is a Great Book, about a truly important subject. GET IT NOW!!! President DJT</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115642237340050337</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>No clear impact on financial markets or sectors from this tweet.</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-11-30 17:58:00</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Dec 01, 2025, 7:58 AM</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>the presidential ballroom which am building at the white house with all private donations and funding zero cost to the american taxpayer will be at its completion the most beautiful and spectacular ballroom anywhere in the world it is something that has been needed and desired at the white house for over 150 years but something which no other president was equipped to do but am and as long as we are going to do it we are going to do it right it will be magnificent addition to the white house the most important since the building of the west wing</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>The Presidential Ballroom, which I am building at the White House, with all private donations and funding (ZERO cost to the American Taxpayer!), will be, at its completion, the most beautiful and spectacular Ballroom anywhere in the World! It is something that has been needed and desired at the White House for over 150 years, but something which no other President was equipped to do — But I am, and as long as we are going to do it, we are going to do it RIGHT. It will be a magnificent addition to the White House, the most important since the building of the West Wing!</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115641123675257358</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>White House, private donations, taxpayer, fiscal responsibility, public funding</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Industrials, Real Estate</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>The tweet indicates privately funded White House construction with no taxpayer cost, signaling positive sentiment toward fiscal responsibility and implying indirect, modest market effects.</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-11-30 17:52:00</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Dec 01, 2025, 7:52 AM</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>to the great people of tennessee 7th district who gave me record setting wins in each of three elections am asking you to get out and vote for matt van epps he will be great congressman and unlike his opponent he cherishes christianity and country music she hates them both this is very pivotal election the whole world is watching make america great again</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>To the Great People of Tennessee’s 7th District, who gave me Record Setting Wins in each of three Elections, I am asking you to get out and VOTE FOR MATT VAN EPPS. HE WILL BE A GREAT CONGRESSMAN and, unlike his Opponent, he cherishes Christianity and Country Music — She hates them both! This is a very pivotal Election. The whole World is watching. MAKE AMERICA GREAT AGAIN!</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115641100589870564</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>This tweet does not mention any companies or sectors and therefore is not expected to have a measurable impact on financial markets.</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-11-30 17:48:00</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Dec 01, 2025, 7:48 AM</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>we ve got to get bad people out of our country and fast what the biden administration and rigged election did to the united states of america must never be forgotten make america great again</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>We’ve got to get BAD PEOPLE out of our Country, and FAST. What the Biden Administration, and a Rigged Election, did to the United States of America must never be forgotten. MAKE AMERICA GREAT AGAIN!</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115641083942804824</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Biden administration, rigged election, Make America Great Again, political risk, US economy</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Financials, Industrials, Consumer Discretionary, Communication Services, Real Estate, Health Care, Utilities, Energy, Information Technology, Materials, Consumer Staples</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Political risk and policy uncertainty implied by the tweet could influence investor sentiment and broad market expectations.</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-11-30 17:46:00</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Dec 01, 2025, 7:46 AM</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>the great babe ruth golfing his baseball swing which was the best was better than his golf swing but nevertheless he was the babe</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>The Great Babe Ruth golfing! His Baseball swing, which was the best, was better than his Golf swing but, nevertheless, he was “THE BABE!”</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115641076038424832</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>The tweet does not mention any companies, sectors, or economic policy, so it has no market relevance.</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-11-30 13:56:00</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Dec 01, 2025, 3:56 AM</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>i am asking all america first patriots in tennessee 7th congressional district who haven voted yet to please get out and vote on election day tuesday december 2nd for phenomenal candidate matt van epps matt is fighting against woman who hates christianity will take away your guns wants open borders transgender for everybody men in women sports and openly disdains country music she said all of these things precisely and without question it on tape do not take this race for granted the radical left democrats are spending fortune to beat one of the best candidates we ve ever had matt van epps you can win this election for matt get out and vote for matt van epps who has my complete and total endorsement he will never let you down</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>I am asking all America First Patriots in Tennessee’s 7th Congressional District, who haven’t voted yet, to please GET OUT AND VOTE on Election Day, Tuesday, December 2nd, for a phenomenal Candidate, Matt Van Epps. Matt is fighting against a woman who hates Christianity, will take away your guns, wants Open Borders, Transgender for everybody, men in women’s sports, and openly disdains Country music. She said all of these things precisely, and without question — IT’S ON TAPE! Do not take this Race for granted. The Radical Left Democrats are spending a fortune to beat one of the best Candidates we’ve ever had, Matt Van Epps! You can win this Election for Matt. GET OUT AND VOTE FOR MATT VAN EPPS, who has my Complete and Total Endorsement — HE WILL NEVER LET YOU DOWN!</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115640171509477265</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>election, policy uncertainty, immigration, open borders, gun rights</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Financials, Industrials, Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Endorsement in a local race signals policy expectations and political risk that could modestly affect investor sentiment and related sectors.</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-11-30 09:51:00</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Nov 30, 2025, 11:51 PM</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>crooked joe biden mayorkas and so called border czar kamala harris really screwed our country by letting anyone and everyone come in totally unchecked and unvetted</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Crooked Joe Biden, Mayorkas, and so-called “Border Czar” Kamala Harris really screwed our Country by letting anyone and everyone come in totally unchecked and unvetted!</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115639208611971612</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Immigration policy, Labor market, Economy, Policy uncertainty, Government</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Financials, Industrials, Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>The tweet attacks immigration and border policy, which could influence macroeconomic sentiment and affect sectors sensitive to labor supply and consumer demand.</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-11-30 09:39:00</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Nov 30, 2025, 11:39 PM</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>political commentator debra lea was great on fox friends this morning working with wonderful charlie hurt there was fantastic energy and wisdom fantastic show</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Political Commentator Debra Lea was GREAT on Fox &amp; Friends this morning. Working with wonderful Charlie Hurt, there was fantastic Energy and Wisdom. A fantastic show!!!</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115639162273110013</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>No mention of companies, sectors, or economic implications; therefore no expected market impact.</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-11-29 16:17:00</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Nov 30, 2025, 6:17 AM</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>winning is always nice</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Winning is always nice!</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115635064661785681</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>The tweet contains no company references or economic content, so it is unlikely to have a measurable market impact.</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-11-29 15:53:00</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Nov 30, 2025, 5:53 AM</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>great being with the highly respected future king of saudi arabia mohammed bin salman he is doing tremendous things for his country</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Great being with the Highly Respected future King of Saudi Arabia, Mohammed bin Salman. He is doing tremendous things for his Country!</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://truthsocial.com/@realDonaldTrump/posts/115634967838729337</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Mohammed bin Salman, Saudi Arabia, oil, geopolitics, energy</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>A positive statement about a foreign political leader with potential implications for oil markets and geopolitical risk sentiment, but no direct reference to a U.S.-listed company.</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t>2025-11-29 15:49:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>Nov 30, 2025, 5:49 AM</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>immigration and nationality act section 212 whenever the president finds that the entry of any aliens or of any class of aliens into the united states would be detrimental to the interests of the united states he may by proclamation and for such period as he shall deem necessary suspend the entry of all aliens or any class of aliens as immigrants or nonimmigrants or impose on the entry of aliens any restrictions he may deem to be appropriate</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>Immigration and Nationality Act, Section 212(f):
 “Whenever the President finds that the entry of any aliens or of any class of aliens into the United States would be detrimental to the interests of the United States, he may by proclamation, and for such period as he shall deem necessary, suspend the entry of all aliens or any class of aliens as immigrants or nonimmigrants, or impose on the entry of aliens any restrictions he may deem to be appropriate.”</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>https://truthsocial.com/@realDonaldTrump/posts/115634952920337470</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H84" t="n">
         <v>0.25</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>Immigration Policy, Section 212, Nationality Act, Presidential Proclamation, Aliens</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>Industrials, Information Technology, Financials, Consumer Discretionary, Health Care, Real Estate, Communication Services</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>Immigration policy changes can affect labor supply and economic growth, with ripple effects across multiple sectors.</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="L84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>2025-11-29 08:17:00</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>Nov 29, 2025, 10:17 PM</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>because have invoked favored nations status for the united states of america drug prices are falling at levels never seen before 500 600 700 and more no other president has been able to do this but have this is also the answer to much less expensive and far better healthcare republicans remember this was done by us and nobody else this is revolution in medicine the biggest and most important event ever if this story is properly told we should win the midterm elections in record numbers am the affordability president talk loudly and proudly president djt</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>Because I have invoked FAVORED NATIONS STATUS FOR THE UNITED STATES OF AMERICA, DRUG PRICES ARE FALLING AT LEVELS NEVER SEEN BEFORE, 500%, 600%, 700%, and more. No other President has been able to do this, BUT I HAVE! This is also the answer to much less expensive, and far better, HEALTHCARE! Republicans, remember, this was done by us, and nobody else. This is a revolution in medicine, the biggest and most important event, EVER. If this story is properly told, we should win the Midterm Elections in RECORD NUMBERS. I AM THE AFFORDABILITY PRESIDENT. TALK LOUDLY AND PROUDLY! President DJT</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>https://truthsocial.com/@realDonaldTrump/posts/115633174669225455</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
         <v>0.7</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H85" t="n">
         <v>0.5</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>Most-Favored Nation status, drug prices, healthcare affordability, pharmaceuticals, US healthcare policy</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>Health Care</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>Policy shift to Most-Favored Nation status for drugs implies lower US drug prices and broader healthcare affordability, likely impacting the Health Care sector.</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="L85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>2025-11-29 07:43:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>Nov 29, 2025, 9:43 PM</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>to all airlines pilots drug dealers and human traffickers please consider the airspace above and surrounding venezuela to be closed in its entirety thank you for your attention to this matter president donald trump</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>To all Airlines, Pilots, Drug Dealers, and Human Traffickers, please consider THE AIRSPACE ABOVE AND SURROUNDING VENEZUELA TO BE CLOSED IN ITS ENTIRETY. Thank you for your attention to this matter! PRESIDENT DONALD J. TRUMP</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>https://truthsocial.com/@realDonaldTrump/posts/115633041089714842</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
         <v>0.2</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H86" t="n">
         <v>0.25</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>Venezuela, Airlines, Airspace, Policy, Trump</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>Industrials, Energy</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>A Venezuelan airspace closure policy could raise geopolitical risk and disrupt airlines and related energy logistics, prompting a modest market reaction across travel and aviation-related equities.</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="L86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>2025-11-29 07:22:00</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>Nov 29, 2025, 9:22 PM</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>tariffs have made our country rich strong powerful and safe they have been successfully used by other countries against us for decades but when it comes to tariffs and because of what have set in place we have all the cards and with smart president we always will wars have been stopped and stronger relationships with other countries have been built even though they are not allowed to rip off the united states anymore the stock market and 401k have hit an all time high inflation prices and taxes are down education is being brought back to the states where it belongs and our military and southern border is the strongest they have ever been the usa is respected again respected like never before all of this was brought about by strong leadership and tariffs without which we would be poor and pathetic laughingstock again evil american hating forces are fighting us at the united states supreme court pray to god that our nine justices will show great wisdom and do the right thing for america</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>Tariffs have made our Country Rich, Strong, Powerful, and Safe. They have been successfully used by other Countries against us for Decades, but when it comes to Tariffs, and because of what I have set in place, WE HAVE ALL THE CARDS, and with a smart President, we always will! Wars have been stopped, and stronger relationships with other countries have been built, even though they are not allowed to rip off the United States anymore. The Stock Market and 401k’s have hit an all time high, Inflation, Prices and Taxes are DOWN. Education is being brought back to the States (where it belongs!), and our Military, and Southern Border, is the strongest they have ever been. The USA is respected again, respected like never before. All of this was brought about by Strong Leadership and TARIFFS, without which we would be a poor and pathetic laughingstock again. Evil, American hating Forces are fighting us at the United States Supreme Court. Pray to God that our Nine Justices will show great wisdom, and do the right thing for America!</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>https://truthsocial.com/@realDonaldTrump/posts/115632959311037868</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
         <v>0.7</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H87" t="n">
         <v>0.6</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>Tariffs, Stock market, 401k, Inflation, Taxes</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>Financials, Industrials, Consumer Discretionary, Materials</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>The tweet frames tariffs and perceived leadership as fueling macroeconomic strength and a record stock market, implying positive, policy-driven sentiment that could influence investor expectations across multiple sectors.</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="L87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>2025-11-28 16:18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Nov 29, 2025, 6:18 AM</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>if tito asfura wins for president of honduras because the united states has so much confidence in him his policies and what he will do for the great people of honduras we will be very supportive if he doesn win the united states will not be throwing good money after bad because wrong leader can only bring catastrophic results to country no matter which country it is tito will be great president and the united states will work closely with him in order to ensure the success with all of its potential of honduras additionally will be granting full and complete pardon to former president juan orlando hernandez who has been according to many people that greatly respect treated very harshly and unfairly this cannot be allowed to happen especially now after tito asfura wins the election when honduras will be on its way to great political and financial success vote for tito asfura for president and congratulations to juan orlando hernandez on your upcoming pardon thank you for your attention to this matter make honduras great again president donald trump</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>If Tito Asfura wins for President of Honduras, because the United States has so much confidence in him, his Policies, and what he will do for the Great People of Honduras, we will be very supportive. If he doesn’t win, the United States will not be throwing good money after bad, because a wrong Leader can only bring catastrophic results to a country, no matter which country it is. Tito will be a Great President, and the United States will work closely with him in order to ensure the success, with all of its potential, of Honduras! Additionally, I will be granting a Full and Complete Pardon to Former President Juan Orlando Hernandez who has been, according to many people that I greatly respect, treated very harshly and unfairly. This cannot be allowed to happen, especially now, after Tito Asfura wins the Election, when Honduras will be on its way to Great Political and Financial Success. VOTE FOR TITO ASFURA FOR PRESIDENT, AND CONGRATULATIONS TO JUAN ORLANDO HERNANDEZ ON YOUR UPCOMING PARDON. Thank you for your attention to this matter. MAKE HONDURAS GREAT AGAIN!PRESIDENT DONALD J. TRUMP</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>https://truthsocial.com/@realDonaldTrump/posts/115629406693931908</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
         <v>0.6</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H88" t="n">
         <v>0.25</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>Honduras, US-Honduras relations, foreign policy, investments, remittances</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>Financials, Industrials</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>No specific companies are named, but the tweet implies potential policy and relationship shifts between the US and Honduras that could affect investor sentiment and cross-border capital flows in Latin markets.</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="L88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>2025-11-28 16:00:00</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Nov 29, 2025, 6:00 AM</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>democracy is on trial in the coming elections in the beautiful country of honduras on november 30th will maduro and his narcoterrorists take over another country like they have taken over cuba nicaragua and venezuela the man who is standing up for democracy and fighting against maduro is tito asfura the presidential candidate of the national party tito was the highly successful mayor of tegucigalpa where he brought running water to millions and paved hundreds of kilometers of roads his chief opponent is rixi moncada who says fidel castro is her idol normally the smart people of honduras would reject her and elect tito asfura but the communists are trying to trick the people by running third candidate salvador nasralla nasralla is no friend of freedom borderline communist he helped xiomara castro by running as her vice president he won and helped castro win then he resigned and is now pretending to be an anti communist only for the purposes of splitting asfura vote the people of honduras must not be tricked again the only real friend of freedom in honduras is tito asfura tito and can work together to fight the narcocommunists and bring needed aid to the people of honduras cannot work with moncada and the communists and nasralla is not reliable partner for freedom and cannot be trusted hope the people of honduras vote for freedom and democracy and elect tito asfura president</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>Democracy is on trial in the coming Elections in the beautiful country of Honduras on November 30th. Will Maduro and his Narcoterrorists take over another country like they have taken over Cuba, Nicaragua, and Venezuela? The man who is standing up for Democracy, and fighting against Maduro, is Tito Asfura, the Presidential Candidate of the National Party. Tito was the highly successful Mayor of Tegucigalpa where he brought running water to millions, and paved hundreds of kilometers of roads. His chief opponent is Rixi Moncada, who says Fidel Castro is her idol. Normally, the smart people of Honduras, would reject her, and elect Tito Asfura, but the Communists are trying to trick the people by running a third Candidate, Salvador Nasralla. Nasralla is no friend of Freedom. A borderline Communist, he helped Xiomara Castro by running as her Vice President. He won, and helped Castro win. Then he resigned, and is now pretending to be an anti-Communist only for the purposes of splitting Asfura’s vote. The people of Honduras must not be tricked again. The only real friend of Freedom in Honduras is Tito Asfura. Tito and I can work together to fight the Narcocommunists, and bring needed aid to the people of Honduras. I cannot work with Moncada and the Communists, and Nasralla is not a reliable partner for Freedom, and cannot be trusted. I hope the people of Honduras vote for Freedom and Democracy, and elect Tito Asfura, President!</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>https://truthsocial.com/@realDonaldTrump/posts/115629335172411031</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
         <v>0.6</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H89" t="n">
         <v>0.2</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>Tito Asfura, Xiomara Castro, Salvador Nasralla, Rixi Moncada, aid</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>Industrials, Utilities, Financials</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>The tweet centers on Honduran political risk and elections, implying indirect, modest market impact through policy uncertainty and investor sentiment rather than direct company-specific signals.</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="L89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>2025-11-28 15:02:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Nov 29, 2025, 5:02 AM</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>trumplicans</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>TRUMPLICANS!</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>https://truthsocial.com/@realDonaldTrump/posts/115629105165918036</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G90" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
         <is>
           <t>No tweet provided to analyze.</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="L90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>2025-11-28 14:37:00</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>Nov 29, 2025, 4:37 AM</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>any document signed by sleepy joe biden with the autopen which was approximately 92 of them is hereby terminated and of no further force or effect the autopen is not allowed to be used if approval is not specifically given by the president of the united states the radical left lunatics circling biden around the beautiful resolute desk in the oval office took the presidency away from him am hereby cancelling all executive orders and anything else that was not directly signed by crooked joe biden because the people who operated the autopen did so illegally joe biden was not involved in the autopen process and if he says he was he will be brought up on charges of perjury thank you for your attention to this matter</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>Any document signed by Sleepy Joe Biden with the Autopen, which was approximately 92% of them, is hereby terminated, and of no further force or effect. The Autopen is not allowed to be used if approval is not specifically given by the President of the United
 States. The Radical Left Lunatics circling Biden around the beautiful Resolute Desk in the Oval Office took the Presidency away from him. I am hereby cancelling all Executive Orders, and anything else that was not directly signed by Crooked Joe Biden, because the people who operated the Autopen did so illegally. Joe Biden was not involved in the Autopen process and, if he says he was, he will be brought up on charges of perjury. Thank you for your attention to this matter!</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>https://truthsocial.com/@realDonaldTrump/posts/115629010097815862</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
         <v>-0.8</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H91" t="n">
         <v>0.25</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>Executive orders, Autopen, Policy uncertainty, Perjury, Presidency</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>Financials, Industrials, Information Technology</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>The tweet references cancelling executive orders and related political controversy, signaling policy uncertainty that could indirectly impact markets and investor sentiment.</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="L91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>2025-11-28 02:30:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Nov 28, 2025, 4:30 PM</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>twilight last gleaming can america be saved yes by the great todd starnes fantastic new book get it now president djt</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>“Twilight’s Last Gleaming, Can America Be Saved” (YES!), by the Great Todd Starnes. A fantastic NEW BOOK. Get it now!!! President DJT</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>https://truthsocial.com/@realDonaldTrump/posts/115626148731779942</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G92" t="n">
         <v>0.4</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>Todd Starnes, Donald Trump, Publishing, Media, Book</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>Communication Services</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>The tweet promotes a book and does not reference any companies, earnings, or economic factors, so it is unlikely to have a measurable market impact.</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="L92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>2025-11-27 23:27:00</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>Nov 28, 2025, 1:27 PM</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>a very happy thanksgiving salutation to all of our great american citizens and patriots who have been so nice in allowing our country to be divided disrupted carved up murdered beaten mugged and laughed at along with certain other foolish countries throughout the world for being politically correct and just plain stupid when it comes to immigration the official united states foreign population stands at 53 million people census most of which are on welfare from failed nations or from prisons mental institutions gangs or drug cartels they and their children are supported through massive payments from patriotic american citizens who because of their beautiful hearts do not want to openly complain or cause trouble in any way shape or form they put up with what has happened to our country but it eating them alive to do so migrant earning 30 000 with green card will get roughly 50 000 in yearly benefits for their family the real migrant population is much higher this refugee burden is the leading cause of social dysfunction in america something that did not exist after world war ii failed schools high crime urban decay overcrowded hospitals housing shortages and large deficits etc as an example hundreds of thousands of refugees from somalia are completely taking over the once great state of minnesota somalian gangs are roving the streets looking for prey as our wonderful people stay locked in their apartments and houses hoping against hope that they will be left alone the seriously retarded governor of minnesota tim walz does nothing either through fear incompetence or both while the worst congressman woman in our country ilhan omar always wrapped in her swaddling hijab and who probably came into the s illegally in that you are not allowed to marry your brother does nothing but hatefully complain about our country its constitution and how badly she is treated when her place of origin is decadent backward and crime ridden nation which is essentially not even country for lack of government military police schools etc</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>A very Happy Thanksgiving salutation to all of our Great American Citizens and Patriots who have been so nice in allowing our Country to be divided, disrupted, carved up, murdered, beaten, mugged, and laughed at, along with certain other foolish countries throughout the World, for being “Politically Correct,” and just plain STUPID, when it comes to Immigration. The official United States Foreign population stands at 53 million people (Census), most of which are on welfare, from failed nations, or from prisons, mental institutions, gangs, or drug cartels. They and their children are supported through massive payments from Patriotic American Citizens who, because of their beautiful hearts, do not want to openly complain or cause trouble in any way, shape, or form. They put up with what has happened to our Country, but it’s eating them alive to do so! A migrant earning $30,000 with a green card will get roughly $50,000 in yearly benefits for their family. The real migrant population is much higher. This refugee burden is the leading cause of social dysfunction in America, something that did not exist after World War II (Failed schools, high crime, urban decay, overcrowded hospitals, housing shortages, and large deficits, etc.). As an example, hundreds of thousands of refugees from Somalia are completely taking over the once great State of Minnesota. Somalian gangs are roving the streets looking for “prey” as our wonderful people stay locked in their apartments and houses hoping against hope that they will be left alone. The seriously retarded Governor of Minnesota, Tim Walz, does nothing, either through fear, incompetence, or both, while the worst “Congressman/woman” in our Country, Ilhan Omar, always wrapped in her swaddling hijab, and who probably came into the U.S.A. illegally in that you are not allowed to marry your brother, does nothing but hatefully complain about our Country, its Constitution, and how “badly” she is treated, when her place of origin is a decadent, backward, and crime ridden nation, which is essentially not even a country for lack of Government, Military, Police, schools, etc…</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>https://truthsocial.com/@realDonaldTrump/posts/115625429081411360</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
         <v>-0.6</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H93" t="n">
         <v>0.25</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>immigration, refugees, deficit, welfare, Minnesota</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>Financials, Health Care, Consumer Discretionary, Real Estate, Industrials</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>It discusses immigration policy and social welfare issues as macro concerns, implying indirect policy and economic sentiment effects across multiple sectors without citing any specific companies.</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="L93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>2025-11-27 23:26:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>Nov 28, 2025, 1:26 PM</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>even as we have progressed technologically immigration policy has eroded those gains and living conditions for many will permanently pause migration from all third world countries to allow the s system to fully recover terminate all of the millions of biden illegal admissions including those signed by sleepy joe biden autopen and remove anyone who is not net asset to the united states or is incapable of loving our country end all federal benefits and subsidies to noncitizens of our country denaturalize migrants who undermine domestic tranquility and deport any foreign national who is public charge security risk or non compatible with western civilization these goals will be pursued with the aim of achieving major reduction in illegal and disruptive populations including those admitted through an unauthorized and illegal autopen approval process only reverse migration can fully cure this situation other than that happy thanksgiving to all except those that hate steal murder and destroy everything that america stands for you won be here for long</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>…Even as we have progressed technologically, Immigration Policy has eroded those gains and living conditions for many. I will permanently pause migration from all Third World Countries to allow the U.S. system to fully recover, terminate all of the millions of Biden illegal admissions, including those signed by Sleepy Joe Biden’s Autopen, and remove anyone who is not a net asset to the United States, or is incapable of loving our Country, end all Federal benefits and subsidies to noncitizens of our Country, denaturalize migrants who undermine domestic tranquility, and deport any Foreign National who is a public charge, security risk, or non-compatible with Western Civilization. These goals will be pursued with the aim of achieving a major reduction in illegal and disruptive populations, including those admitted through an unauthorized and illegal Autopen approval process. Only REVERSE MIGRATION can fully cure this situation. Other than that, HAPPY THANKSGIVING TO ALL, except those that hate, steal, murder, and destroy everything that America stands for — You won’t be here for long!</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>https://truthsocial.com/@realDonaldTrump/posts/115625427648743414</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
         <v>-0.8</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H94" t="n">
         <v>0.25</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>immigration policy, federal benefits to noncitizens, deportation, unauthorized migration, reverse migration</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>Information Technology, Consumer Discretionary, Industrials, Health Care, Financials, Real Estate, Consumer Staples, Utilities, Energy, Materials, Communication Services</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>Broad immigration policy changes could affect labor supply and consumer demand across multiple sectors, potentially dampening economic growth and market sentiment.</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="L94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>2025-11-27 23:25:00</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Nov 28, 2025, 1:25 PM</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>this is part of the horrendous airlift from afghanistan hundreds of thousands of people poured into our country totally unvetted and unchecked we will fix it but will never forget what crooked joe biden and his thugs did to our country</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>This is part of the horrendous airlift from Afghanistan. Hundreds of thousands of people poured into our Country totally unvetted and unchecked. We will fix it, but will never forget what Crooked Joe Biden and his Thugs did to our Country!</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>https://truthsocial.com/@realDonaldTrump/posts/115625421503636680</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
         <v>-0.9</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H95" t="n">
         <v>0.25</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
         <is>
           <t>The tweet contains strong political rhetoric about immigration and the Afghanistan airlift with no direct company or CEO mention, implying broader macro sentiment and policy risk with limited immediate stock-specific impact.</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="L95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>2025-11-27 13:50:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>Nov 28, 2025, 3:50 AM</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>very sad to hear that the highly respected and beloved professional golfer fuzzy zoeller has passed away in 1979 fuzzy won the masters tournament only 1 of 3 to win in his first appearance and in 1984 he won the s open at winged foot golf club and famously waved the white towel on the 18th hole as he went on to beat greg norman in an 18 hole playoff truly remarkable person and player he will be missed</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>Very sad to hear that the highly respected and beloved Professional Golfer, Fuzzy Zoeller, has passed away. In 1979, Fuzzy won the Masters Tournament (Only 1 of 3 to win in his first appearance!) and, in 1984, he won the U.S. Open at Winged Foot Golf Club, and famously waved the white towel on the 18th Hole as he went on to beat Greg Norman in an 18 Hole playoff. A truly remarkable person and player, he will be missed!</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>https://truthsocial.com/@realDonaldTrump/posts/115623160236217960</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G96" t="n">
         <v>-0.4</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
         <is>
           <t>No discernible impact on financial markets as the tweet discusses the death of a sports figure with no financial or economic implications.</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="L96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>2025-11-22 23:27:00 EST</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
         <is>
           <t>MANY GREAT LEGAL SCHOLARS AGREE THAT THE DEMOCRAT TRAITORS THAT TOLD THE MILITARY TO DISOBEY MY ORDERS, AS PRESIDENT, HAVE COMMITTED A CRIME OF SERIOUS PROPORTION!</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
         <is>
           <t>https://truthsocial.com/@realDonaldTrump/posts/115597116924552201</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G97" t="n">
         <v>-0.7</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>Democrat, military, legal scholars, crime, president</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
         <is>
           <t>The tweet is political in nature and does not mention specific companies, sectors, or economic policies that would influence the stock market.</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L97" t="inlineStr">
         <is>
           <t>Nov 23, 2025, 1:27 PM</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>2025-11-22 23:17:00 EST</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
         <is>
           <t>THE TRAITORS THAT TOLD THE MILITARY TO DISOBEY MY ORDERS SHOULD BE IN JAIL RIGHT NOW, NOT ROAMING THE FAKE NEWS NETWORKS TRYING TO EXPLAIN THAT WHAT THEY SAID WAS OK. IT WASN’T, AND NEVER WILL BE! IT WAS SEDITION AT THE HIGHEST LEVEL, AND SEDITION IS A MAJOR CRIME. THERE CAN BE NO OTHER INTERPRETATION OF WHAT THEY SAID!</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
         <is>
           <t>https://truthsocial.com/@realDonaldTrump/posts/115597077845312894</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G98" t="n">
         <v>-0.9</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>Military, Fake News, Sedition</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
         <is>
           <t>The tweet focuses on accusations against unnamed military figures and the media without reference to any companies, sectors, or the economy.</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L98" t="inlineStr">
         <is>
           <t>Nov 23, 2025, 1:17 PM</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>2025-11-18 17:36:00 EST</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
         <is>
           <t>Investment in AI is helping to make the U.S. Economy the “HOTTEST” in the World, but overregulation by the States is threatening to undermine this Major Growth “Engine.” Some States are even trying to embed DEI ideology into AI models, producing “Woke AI” (Remember Black George Washington?). We MUST have one Federal Standard instead of a patchwork of 50 State Regulatory Regimes. If we don’t, then China will easily catch us in the AI race. Put it in the NDAA, or pass a separate Bill, and nobody will ever be able to compete with America.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
         <is>
           <t>https://truthsocial.com/@realDonaldTrump/posts/115573090200730933</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
         <v>0.3</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H99" t="n">
         <v>0.6</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>AI, U.S. Economy, Regulation, China, NDAA</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>Information Technology, Industrials</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>The tweet supports AI investment and warns against overregulation, indirectly signaling potential policy changes that could impact the tech sector and broader market sentiment.</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L99" t="inlineStr">
         <is>
           <t>Nov 19, 2025, 7:36 AM</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>2025-11-18 17:35:00 EST</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
         <is>
           <t>I don’t care when the Senate passes the House Bill, whether tonight, or at some other time in the near future, I just don’t want Republicans to take their eyes off all of the Victories that we’ve had, including THE GREAT BIG BEAUTIFUL BILL, Closed Borders, No Men in Women’s Sports or Transgender for Everyone, ending DEI, stopping Biden’s Record Setting Inflation, Biggest Tax and Regulation Cuts in History, stopping EIGHT Wars, rebuilding our Military, being RESPECTED by every Country in the World, having Trillions of Dollars INVESTED in the U.S.A., having created the “HOTTEST” Country anywhere in the World, and even delivering a HUGE DEFEAT to the Democrats on the Shutdown. MAKE AMERICA GREAT AGAIN!</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
         <is>
           <t>https://truthsocial.com/@realDonaldTrump/posts/115573085494912311</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
         <v>0.4</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H100" t="n">
         <v>0.2</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>tax cuts, regulation cuts, inflation, military spending, shutdown</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>Financials, Industrials, Consumer Discretionary, Energy</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>The tweet references broad economic themes like tax cuts, regulation cuts, inflation, and investment, which can impact market sentiment for multiple sectors but doesn't single out specific companies.</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L100" t="inlineStr">
         <is>
           <t>Nov 19, 2025, 7:35 AM</t>
         </is>
